--- a/tax revenues change over time - OECD 2021 data - public.xlsx
+++ b/tax revenues change over time - OECD 2021 data - public.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danneidle/Dropbox/Dan dropbox files/tax policy associates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8FDD8ED-8D74-1E4A-A2DB-7E55816334B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D8996F-BC79-0F44-A8A8-208966967A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="3800" windowWidth="26440" windowHeight="15440" activeTab="1" xr2:uid="{775FAD06-A04F-3145-BB4B-80F637DF5572}"/>
+    <workbookView xWindow="6380" yWindow="3300" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{9AC2F567-D478-BF4A-BD74-EE6E7C9D265F}"/>
   </bookViews>
   <sheets>
-    <sheet name="OECD 2021-data" sheetId="1" r:id="rId1"/>
-    <sheet name="OECD - 2021 - charts" sheetId="2" r:id="rId2"/>
+    <sheet name="OECD 2021-original" sheetId="1" r:id="rId1"/>
+    <sheet name="OECD - 2021 charts" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OECD - 2021 - charts'!$A$1:$K$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'OECD - 2021 charts'!$A$1:$K$37</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -849,8 +849,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{541F19AB-979B-674A-8FD2-0D0ED424D4F8}"/>
-    <cellStyle name="Normal 4" xfId="1" xr:uid="{3081FB7B-83CF-2847-AE0E-155CD8B0340B}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{CDAACD6C-E73A-A043-B4EE-1528F0408890}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{D0FD723B-945C-924B-9729-93E79B7CE649}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -947,11 +947,537 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$B$1</c:f>
+              <c:f>'OECD - 2021 charts'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corporate tax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Finland</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Hungary</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>New Zealand</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Turkey</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Korea</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Chile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'OECD - 2021 charts'!$F$2:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2.759E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6049999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0040000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9210000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9359999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5329999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6960000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.739E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2219999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.683E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0079999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7659999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0289999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1360000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9019999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5279999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6160000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4319999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.436E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.648E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.7180000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1650000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5950000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5790000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8739999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4550000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8309999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4290000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.6050000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8010000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72E5-9E4E-824A-243C89266DE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OECD - 2021 charts'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Property/wealth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Finland</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Hungary</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>New Zealand</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Turkey</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Korea</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Colombia</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Chile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'OECD - 2021 charts'!$G$2:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>6.3299999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2430000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9329999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2339999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5430000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2199999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.823E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7320000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8939999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5069999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9559999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5610000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8799999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9620000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0840000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.94E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.282E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9929999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5859999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.3380000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.217E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.6800000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5190000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8670000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9210000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.6799999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.2740000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.704E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0629999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72E5-9E4E-824A-243C89266DE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'OECD - 2021 charts'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -972,249 +1498,249 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Finland</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>Turkey</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Ireland</c:v>
+                  <c:v>Korea</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Chile</c:v>
+                  <c:v>Mexico</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Colombia</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Mexico</c:v>
+                  <c:v>Chile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$B$2:$B$37</c:f>
+              <c:f>'OECD - 2021 charts'!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>0.10050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10281999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11885000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4379999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4760000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6989999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.26998</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4760000000000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>3.0890000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.12837999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>0.10348</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>0.11223000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2050000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8250000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6679999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6080000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12533</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15501000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.1089999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1849999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.734E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.9980000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9150000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.4090000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.10727</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11223000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11885000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6080000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10517</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10122</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.4379999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.2050000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15501000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>5.228E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0890000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>6.5140000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.8220000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.14394999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.8250000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.4090000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.12533</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.6679999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.8220000000000012E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.1089999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.3200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.10281999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.734E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3.0299999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.5140000000000003E-2</c:v>
+                  <c:v>4.3200000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.298E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.617E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>2.298E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C68-4F48-BCB3-B4078B6F948E}"/>
+              <c16:uniqueId val="{00000002-72E5-9E4E-824A-243C89266DE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$C$1</c:f>
+              <c:f>'OECD - 2021 charts'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1235,249 +1761,249 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Finland</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>Turkey</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Ireland</c:v>
+                  <c:v>Korea</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Chile</c:v>
+                  <c:v>Mexico</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Colombia</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Mexico</c:v>
+                  <c:v>Chile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$C$2:$C$37</c:f>
+              <c:f>'OECD - 2021 charts'!$C$2:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>0.18211000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14879000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3539999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7990000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13506000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13655</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.2599999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18211000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>0.16449000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.11951000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>0.14199000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>0.12875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15701999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11613</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10348</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13128999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5119999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2780000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10564999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.9299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13566999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.4729999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12805999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.10586999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8059999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>9.7249999999999989E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13506000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13128999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14879000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10564999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16449999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.15701999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2780000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>0.11108000000000001</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16449000000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>3.3819999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9889999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.11613</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.8059999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.5119999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.10348</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.9889999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.13566999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.9299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.12805999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.13655</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.9149999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.10586999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.7990000000000009E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.3539999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.4729999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6.5269999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3819999999999996E-2</c:v>
+                  <c:v>7.9149999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1699999999999999E-2</c:v>
+                  <c:v>2.6019999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2.2749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.6019999999999998E-2</c:v>
+                  <c:v>1.1699999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1C68-4F48-BCB3-B4078B6F948E}"/>
+              <c16:uniqueId val="{00000003-72E5-9E4E-824A-243C89266DE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$D$1</c:f>
+              <c:f>'OECD - 2021 charts'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1498,249 +2024,249 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Finland</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>Turkey</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Ireland</c:v>
+                  <c:v>Korea</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Chile</c:v>
+                  <c:v>Mexico</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Colombia</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Mexico</c:v>
+                  <c:v>Chile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$D$2:$D$37</c:f>
+              <c:f>'OECD - 2021 charts'!$D$2:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>7.6350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2349999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.159E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8059999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2210000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4009999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9349999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9.6430000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4009999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6350000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>7.5880000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>9.3689999999999996E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>9.2070000000000013E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>6.7589999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7609999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.584E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5759999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5279999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5449999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0850000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.585000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.5860000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1119999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3909999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.7809999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>8.1610000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.7589999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.8059999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.5759999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.2349999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0850000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.2210000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.7609999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.5449999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>9.7680000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.5880000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>3.8949999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5399999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.10351</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.7809999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5279999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.584E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.5399999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.5860000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.585000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.9349999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.2969999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.0200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.159E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.1119999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5.3159999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8949999999999999E-2</c:v>
+                  <c:v>4.2969999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.4689999999999996E-2</c:v>
+                  <c:v>4.2869999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>5.9389999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.2869999999999998E-2</c:v>
+                  <c:v>9.4689999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1C68-4F48-BCB3-B4078B6F948E}"/>
+              <c16:uniqueId val="{00000004-72E5-9E4E-824A-243C89266DE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$E$1</c:f>
+              <c:f>'OECD - 2021 charts'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1761,766 +2287,240 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Finland</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>Turkey</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Ireland</c:v>
+                  <c:v>Korea</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Chile</c:v>
+                  <c:v>Mexico</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Colombia</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Mexico</c:v>
+                  <c:v>Chile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$E$2:$E$37</c:f>
+              <c:f>'OECD - 2021 charts'!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>3.9879999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2810000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4059999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3230000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3530000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5640000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4.2730000000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
+                  <c:v>3.2939999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6010000000000023E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8119999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8309999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6039999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2190000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7489999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6640000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7790000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2280000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.212000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4.8399999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9879999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6010000000000023E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8119999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="21">
+                  <c:v>5.302999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6250000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7140000000000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8109999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4940000000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2.6929999999999996E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8309999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3530000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6640000000000015E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2810000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.212000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.7600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6039999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2280000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>5.8549999999999977E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2939999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>2.1530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4360000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2.2409999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.2190000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.4940000000000013E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.7790000000000016E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.7489999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.4360000000000016E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.302999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.8399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.15105000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.5640000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6110000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.8109999999999986E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.3230000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.4059999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.6250000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4.2899999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.1530000000000001E-2</c:v>
+                  <c:v>2.6110000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3109999999999992E-2</c:v>
+                  <c:v>1.9439999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2.4970000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.9439999999999999E-2</c:v>
+                  <c:v>2.3109999999999992E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1C68-4F48-BCB3-B4078B6F948E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Corporate tax</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Finland</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Hungary</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Turkey</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Ireland</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Chile</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Mexico</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$F$2:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>3.739E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5329999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.759E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.683E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0079999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.7180000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7659999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9210000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.9019999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5279999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.9359999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.0289999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0129999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1650000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2219999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.8739999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.5300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.648E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1360000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.5790000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.6160000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.5500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.6960000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.8309999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.436E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.0040000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.6049999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.4319999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.4550000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.5950000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.8010000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.6050000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.4290000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1C68-4F48-BCB3-B4078B6F948E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Property/wealth</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>Denmark</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Finland</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sweden</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Norway</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Hungary</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Turkey</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Ireland</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Chile</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Colombia</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Mexico</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$G$2:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>1.8939999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.823E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3299999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5069999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9559999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.217E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5610000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5430000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2430000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0199999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.2199999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0840000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.6800000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9500000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9210000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8799999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3380000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.9620000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8670000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.282E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.94E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.9929999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.7320000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.2740000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.5859999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.2339999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9329999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.8999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.6799999999999994E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.5190000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.0629999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.704E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.0100000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1C68-4F48-BCB3-B4078B6F948E}"/>
+              <c16:uniqueId val="{00000005-72E5-9E4E-824A-243C89266DE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2825,7 +2825,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$B$1</c:f>
+              <c:f>'OECD - 2021 charts'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2846,240 +2846,240 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Finland</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>Turkey</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Ireland</c:v>
+                  <c:v>Korea</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Chile</c:v>
+                  <c:v>Mexico</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Colombia</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Mexico</c:v>
+                  <c:v>Chile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$B$2:$B$37</c:f>
+              <c:f>'OECD - 2021 charts'!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>0.10050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10281999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11885000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4379999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4760000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6989999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.26998</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4760000000000011E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>3.0890000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.12837999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>0.10348</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>0.11223000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2050000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8250000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.6679999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6080000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12533</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.15501000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.1089999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1849999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.734E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.9980000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9150000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.4090000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.10727</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11223000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11885000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6080000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10517</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10122</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.4379999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.2050000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15501000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>5.228E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0890000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>6.5140000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.8220000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.14394999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.8250000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.4090000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.12533</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.6679999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.8220000000000012E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.1089999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.3200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.10299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.10281999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.734E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3.0299999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.5140000000000003E-2</c:v>
+                  <c:v>4.3200000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.298E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.617E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>2.298E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-62CE-7841-835B-84640E14008B}"/>
+              <c16:uniqueId val="{00000000-5A5B-C14F-9DB4-0C32B13375FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3088,7 +3088,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$C$1</c:f>
+              <c:f>'OECD - 2021 charts'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3109,240 +3109,240 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Finland</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>Turkey</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Ireland</c:v>
+                  <c:v>Korea</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Chile</c:v>
+                  <c:v>Mexico</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Colombia</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Mexico</c:v>
+                  <c:v>Chile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$C$2:$C$37</c:f>
+              <c:f>'OECD - 2021 charts'!$C$2:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>0.18211000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14879000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3539999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7990000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13506000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13655</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.2599999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18211000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>0.16449000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.11951000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>0.14199000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>0.12875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15701999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11613</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10348</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13128999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5119999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2780000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10564999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.9299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13566999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.4729999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12805999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.10586999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8059999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>9.7249999999999989E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13506000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13128999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.14879000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10564999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16449999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.15701999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2780000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>0.11108000000000001</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16449000000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>3.3819999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9889999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.11613</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.8059999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.5119999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.10348</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.9889999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.13566999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.9299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.12805999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.13655</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.9149999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.10586999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.7990000000000009E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.3539999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.4729999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6.5269999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3819999999999996E-2</c:v>
+                  <c:v>7.9149999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1699999999999999E-2</c:v>
+                  <c:v>2.6019999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2.2749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.6019999999999998E-2</c:v>
+                  <c:v>1.1699999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-62CE-7841-835B-84640E14008B}"/>
+              <c16:uniqueId val="{00000001-5A5B-C14F-9DB4-0C32B13375FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3351,7 +3351,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$D$1</c:f>
+              <c:f>'OECD - 2021 charts'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3372,240 +3372,240 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Finland</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>Turkey</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Ireland</c:v>
+                  <c:v>Korea</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Chile</c:v>
+                  <c:v>Mexico</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Colombia</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Mexico</c:v>
+                  <c:v>Chile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$D$2:$D$37</c:f>
+              <c:f>'OECD - 2021 charts'!$D$2:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>7.6350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2349999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.159E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8059999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2210000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4009999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9349999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9.6430000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4009999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.6350000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>7.5880000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>9.3689999999999996E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>9.2070000000000013E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>6.7589999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7609999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.584E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5759999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5279999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5449999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0850000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.585000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.5860000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1119999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3909999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.7809999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>8.1610000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.7589999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.8059999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.5759999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.2349999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0850000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.2210000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.7609999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.5449999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>9.7680000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.5880000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>3.8949999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5399999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.10351</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.7809999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5279999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.584E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.5399999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.5860000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.585000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.9349999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.2969999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.0200000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.159E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.1119999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5.3159999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8949999999999999E-2</c:v>
+                  <c:v>4.2969999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.4689999999999996E-2</c:v>
+                  <c:v>4.2869999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>5.9389999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.2869999999999998E-2</c:v>
+                  <c:v>9.4689999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-62CE-7841-835B-84640E14008B}"/>
+              <c16:uniqueId val="{00000002-5A5B-C14F-9DB4-0C32B13375FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3614,7 +3614,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$E$1</c:f>
+              <c:f>'OECD - 2021 charts'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3635,240 +3635,240 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Finland</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>Turkey</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Ireland</c:v>
+                  <c:v>Korea</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Chile</c:v>
+                  <c:v>Mexico</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Colombia</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Mexico</c:v>
+                  <c:v>Chile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$E$2:$E$37</c:f>
+              <c:f>'OECD - 2021 charts'!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>3.9879999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2810000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4059999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3230000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3530000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5640000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4.2730000000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
+                  <c:v>3.2939999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6010000000000023E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8119999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8309999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6039999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2190000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7489999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6640000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7790000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2280000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.212000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4.8399999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9879999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6010000000000023E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8119999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="21">
+                  <c:v>5.302999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6250000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.7140000000000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8109999999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4940000000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2.6929999999999996E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8309999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3530000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6640000000000015E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2810000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.212000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.7600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6039999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2280000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>5.8549999999999977E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2939999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>2.1530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4360000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2.2409999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.2190000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.4940000000000013E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.7790000000000016E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.7489999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.4360000000000016E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.302999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.8399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.15105000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.5640000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6110000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.8109999999999986E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.3230000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.4059999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.6250000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4.2899999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.1530000000000001E-2</c:v>
+                  <c:v>2.6110000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3109999999999992E-2</c:v>
+                  <c:v>1.9439999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2.4970000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.9439999999999999E-2</c:v>
+                  <c:v>2.3109999999999992E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-62CE-7841-835B-84640E14008B}"/>
+              <c16:uniqueId val="{00000003-5A5B-C14F-9DB4-0C32B13375FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3877,7 +3877,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$F$1</c:f>
+              <c:f>'OECD - 2021 charts'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3898,240 +3898,240 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Finland</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>Turkey</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Ireland</c:v>
+                  <c:v>Korea</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Chile</c:v>
+                  <c:v>Mexico</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Colombia</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Mexico</c:v>
+                  <c:v>Chile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$F$2:$F$37</c:f>
+              <c:f>'OECD - 2021 charts'!$F$2:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>2.759E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6049999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0040000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9210000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9359999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5329999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6960000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.739E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5329999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.759E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>3.2219999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2.683E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>3.0079999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>3.7659999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0289999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1360000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9019999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5279999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.5500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6160000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4319999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.436E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.648E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>9.7180000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7659999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9210000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.9019999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5279999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.9359999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.0289999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0129999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>1.1650000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2219999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>3.5950000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5790000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>4.8739999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.5300000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.648E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1360000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.5790000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.6160000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.5500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.6960000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.8309999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.436E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.0040000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.6049999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.4319999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2.4550000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.5950000000000003E-2</c:v>
+                  <c:v>3.8309999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.8010000000000002E-2</c:v>
+                  <c:v>3.4290000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4.6050000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.4290000000000001E-2</c:v>
+                  <c:v>3.8010000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-62CE-7841-835B-84640E14008B}"/>
+              <c16:uniqueId val="{00000004-5A5B-C14F-9DB4-0C32B13375FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4140,7 +4140,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$G$1</c:f>
+              <c:f>'OECD - 2021 charts'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4161,240 +4161,240 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'OECD - 2021 - charts'!$A$2:$A$37</c:f>
+              <c:f>'OECD - 2021 charts'!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Switzerland</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Slovenia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Denmark</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Austria</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Finland</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>Sweden</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Slovak Republic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Iceland</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Costa Rica</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Norway</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Belgium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Italy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Netherlands</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Luxembourg</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Slovenia</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Slovak Republic</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Iceland</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>Hungary</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Czech Republic</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>New Zealand</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Estonia</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>United Kingdom</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Canada</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Lithuania</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Poland</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Latvia</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Greece</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Spain</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Korea</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Costa Rica</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>Turkey</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Ireland</c:v>
+                  <c:v>Korea</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Chile</c:v>
+                  <c:v>Mexico</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>Colombia</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Mexico</c:v>
+                  <c:v>Chile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OECD - 2021 - charts'!$G$2:$G$37</c:f>
+              <c:f>'OECD - 2021 charts'!$G$2:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>6.3299999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2430000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9329999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2339999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5430000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2199999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.823E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7320000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.8939999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.823E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3299999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>1.9500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1.5069999999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2.9559999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>3.5610000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8799999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9620000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0840000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0199999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.94E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.282E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9929999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5859999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.3380000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1.217E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5610000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5430000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7100000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2430000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0199999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.2199999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0840000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>8.6800000000000002E-3</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9500000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="28">
+                  <c:v>1.5190000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8670000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1.9210000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8799999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3380000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.9620000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8670000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.282E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.94E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.9929999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.7320000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.2740000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.5859999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.2339999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9329999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>9.6799999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5190000000000002E-2</c:v>
+                  <c:v>6.2740000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0629999999999999E-2</c:v>
+                  <c:v>3.0100000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1.704E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0100000000000001E-3</c:v>
+                  <c:v>1.0629999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-62CE-7841-835B-84640E14008B}"/>
+              <c16:uniqueId val="{00000005-5A5B-C14F-9DB4-0C32B13375FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5698,22 +5698,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>192227</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>75459</xdr:rowOff>
+      <xdr:colOff>118246</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1727</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>4068</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>630561</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90378</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38874F8-A5A8-5746-B304-031A0CBD7742}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C296E91-D364-914D-972F-8076278131DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5735,23 +5735,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>468545</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127741</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86311</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>273729</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>51541</xdr:rowOff>
+      <xdr:colOff>594311</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>14551</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA3CFD5-D46B-3B40-8BC4-E1A82F2EDB5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1BE56F2-3C1F-E54A-BA8B-0E1FC7056A97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5821,6 +5821,163 @@
       </cdr:spPr>
     </cdr:pic>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56592</cdr:x>
+      <cdr:y>0.27004</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.59571</cdr:x>
+      <cdr:y>0.86655</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C90831-57B9-42AE-B0C2-8D6EB917EB3C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5858277" y="1798717"/>
+          <a:ext cx="308325" cy="3973268"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -5871,6 +6028,163 @@
       </cdr:spPr>
     </cdr:pic>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69843</cdr:x>
+      <cdr:y>0.11604</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72822</cdr:x>
+      <cdr:y>0.86392</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8075A69-E61C-43B8-31B2-BEE05A992111}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7226917" y="772356"/>
+          <a:ext cx="308325" cy="4977925"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -5884,7 +6198,7 @@
       <sheetName val="OECD 2020 - original"/>
       <sheetName val="OECD - 2020 charts"/>
       <sheetName val="OECD 2021-original"/>
-      <sheetName val="OECD - 2021"/>
+      <sheetName val="OECD - 2021 charts"/>
       <sheetName val="shape of tax system"/>
       <sheetName val="Shape - chart"/>
       <sheetName val="IFS composition - %"/>
@@ -5920,715 +6234,715 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>Denmark</v>
+            <v>Austria</v>
           </cell>
           <cell r="B2">
-            <v>0.26998</v>
+            <v>0.10050000000000001</v>
           </cell>
           <cell r="C2">
-            <v>3.2599999999999999E-3</v>
+            <v>0.18211000000000002</v>
           </cell>
           <cell r="D2">
-            <v>9.6430000000000002E-2</v>
+            <v>7.6350000000000001E-2</v>
           </cell>
           <cell r="E2">
-            <v>4.2730000000000004E-2</v>
+            <v>3.9879999999999999E-2</v>
           </cell>
           <cell r="F2">
-            <v>3.739E-2</v>
+            <v>2.759E-2</v>
           </cell>
           <cell r="G2">
-            <v>1.8939999999999999E-2</v>
+            <v>6.3299999999999997E-3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>France</v>
+            <v>Germany</v>
           </cell>
           <cell r="B3">
-            <v>9.4760000000000011E-2</v>
+            <v>0.10517</v>
           </cell>
           <cell r="C3">
-            <v>0.16639999999999999</v>
+            <v>0.14879000000000001</v>
           </cell>
           <cell r="D3">
-            <v>7.4009999999999992E-2</v>
+            <v>7.2349999999999998E-2</v>
           </cell>
           <cell r="E3">
-            <v>4.8399999999999999E-2</v>
+            <v>3.2810000000000006E-2</v>
           </cell>
           <cell r="F3">
-            <v>2.5329999999999998E-2</v>
+            <v>2.35E-2</v>
           </cell>
           <cell r="G3">
-            <v>3.823E-2</v>
+            <v>1.2430000000000002E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Austria</v>
+            <v>United States</v>
           </cell>
           <cell r="B4">
-            <v>0.10050000000000001</v>
+            <v>0.10281999999999999</v>
           </cell>
           <cell r="C4">
-            <v>0.18211000000000002</v>
+            <v>6.3539999999999999E-2</v>
           </cell>
           <cell r="D4">
-            <v>7.6350000000000001E-2</v>
+            <v>0</v>
           </cell>
           <cell r="E4">
-            <v>3.9879999999999999E-2</v>
+            <v>4.4059999999999995E-2</v>
           </cell>
           <cell r="F4">
-            <v>2.759E-2</v>
+            <v>1.6049999999999998E-2</v>
           </cell>
           <cell r="G4">
-            <v>6.3299999999999997E-3</v>
+            <v>3.9329999999999997E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Finland</v>
+            <v>Switzerland</v>
           </cell>
           <cell r="B5">
-            <v>0.12837999999999999</v>
+            <v>0.10299999999999999</v>
           </cell>
           <cell r="C5">
-            <v>0.11951000000000001</v>
+            <v>6.7990000000000009E-2</v>
           </cell>
           <cell r="D5">
-            <v>9.3689999999999996E-2</v>
+            <v>3.159E-2</v>
           </cell>
           <cell r="E5">
-            <v>4.6010000000000023E-2</v>
+            <v>2.3230000000000001E-2</v>
           </cell>
           <cell r="F5">
-            <v>2.683E-2</v>
+            <v>3.0040000000000001E-2</v>
           </cell>
           <cell r="G5">
-            <v>1.5069999999999998E-2</v>
+            <v>2.2339999999999999E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Sweden</v>
+            <v>Italy</v>
           </cell>
           <cell r="B6">
-            <v>0.10348</v>
+            <v>0.11885000000000001</v>
           </cell>
           <cell r="C6">
-            <v>0.14199000000000001</v>
+            <v>0.13506000000000001</v>
           </cell>
           <cell r="D6">
-            <v>9.2070000000000013E-2</v>
+            <v>6.8059999999999996E-2</v>
           </cell>
           <cell r="E6">
-            <v>2.8119999999999992E-2</v>
+            <v>5.3530000000000008E-2</v>
           </cell>
           <cell r="F6">
-            <v>3.0079999999999999E-2</v>
+            <v>1.9210000000000001E-2</v>
           </cell>
           <cell r="G6">
-            <v>2.9559999999999999E-2</v>
+            <v>2.5430000000000001E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Norway</v>
+            <v>Slovenia</v>
           </cell>
           <cell r="B7">
-            <v>0.10727</v>
+            <v>5.4379999999999998E-2</v>
           </cell>
           <cell r="C7">
-            <v>9.7249999999999989E-2</v>
+            <v>0.16449999999999998</v>
           </cell>
           <cell r="D7">
-            <v>8.1610000000000002E-2</v>
+            <v>8.2210000000000005E-2</v>
           </cell>
           <cell r="E7">
-            <v>2.6929999999999996E-2</v>
+            <v>4.7600000000000003E-2</v>
           </cell>
           <cell r="F7">
-            <v>9.7180000000000002E-2</v>
+            <v>1.9359999999999999E-2</v>
           </cell>
           <cell r="G7">
-            <v>1.217E-2</v>
+            <v>6.2199999999999998E-3</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Belgium</v>
+            <v>France</v>
           </cell>
           <cell r="B8">
-            <v>0.11223000000000001</v>
+            <v>9.4760000000000011E-2</v>
           </cell>
           <cell r="C8">
-            <v>0.12875</v>
+            <v>0.16639999999999999</v>
           </cell>
           <cell r="D8">
-            <v>6.7589999999999997E-2</v>
+            <v>7.4009999999999992E-2</v>
           </cell>
           <cell r="E8">
-            <v>3.8309999999999997E-2</v>
+            <v>4.8399999999999999E-2</v>
           </cell>
           <cell r="F8">
-            <v>3.7659999999999999E-2</v>
+            <v>2.5329999999999998E-2</v>
           </cell>
           <cell r="G8">
-            <v>3.5610000000000003E-2</v>
+            <v>3.823E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Italy</v>
+            <v>Spain</v>
           </cell>
           <cell r="B9">
-            <v>0.11885000000000001</v>
+            <v>8.6989999999999998E-2</v>
           </cell>
           <cell r="C9">
-            <v>0.13506000000000001</v>
+            <v>0.13655</v>
           </cell>
           <cell r="D9">
-            <v>6.8059999999999996E-2</v>
+            <v>6.9349999999999995E-2</v>
           </cell>
           <cell r="E9">
-            <v>5.3530000000000008E-2</v>
+            <v>3.5640000000000005E-2</v>
           </cell>
           <cell r="F9">
-            <v>1.9210000000000001E-2</v>
+            <v>2.6960000000000001E-2</v>
           </cell>
           <cell r="G9">
-            <v>2.5430000000000001E-2</v>
+            <v>2.7320000000000001E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Netherlands</v>
+            <v>Denmark</v>
           </cell>
           <cell r="B10">
-            <v>8.6080000000000004E-2</v>
+            <v>0.26998</v>
           </cell>
           <cell r="C10">
-            <v>0.13128999999999999</v>
+            <v>3.2599999999999999E-3</v>
           </cell>
           <cell r="D10">
-            <v>7.5759999999999994E-2</v>
+            <v>9.6430000000000002E-2</v>
           </cell>
           <cell r="E10">
-            <v>4.6640000000000015E-2</v>
+            <v>4.2730000000000004E-2</v>
           </cell>
           <cell r="F10">
-            <v>3.9019999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
           <cell r="G10">
-            <v>1.7100000000000001E-2</v>
+            <v>1.8939999999999999E-2</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Germany</v>
+            <v>Czech Republic</v>
           </cell>
           <cell r="B11">
-            <v>0.10517</v>
+            <v>3.0890000000000001E-2</v>
           </cell>
           <cell r="C11">
-            <v>0.14879000000000001</v>
+            <v>0.16449000000000003</v>
           </cell>
           <cell r="D11">
-            <v>7.2349999999999998E-2</v>
+            <v>7.5880000000000003E-2</v>
           </cell>
           <cell r="E11">
-            <v>3.2810000000000006E-2</v>
+            <v>3.2939999999999997E-2</v>
           </cell>
           <cell r="F11">
-            <v>2.35E-2</v>
+            <v>3.2219999999999999E-2</v>
           </cell>
           <cell r="G11">
-            <v>1.2430000000000002E-2</v>
+            <v>1.9500000000000001E-3</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Luxembourg</v>
+            <v>Finland</v>
           </cell>
           <cell r="B12">
-            <v>0.10122</v>
+            <v>0.12837999999999999</v>
           </cell>
           <cell r="C12">
-            <v>0.10564999999999999</v>
+            <v>0.11951000000000001</v>
           </cell>
           <cell r="D12">
-            <v>6.0850000000000001E-2</v>
+            <v>9.3689999999999996E-2</v>
           </cell>
           <cell r="E12">
-            <v>3.212000000000001E-2</v>
+            <v>4.6010000000000023E-2</v>
           </cell>
           <cell r="F12">
-            <v>4.5279999999999994E-2</v>
+            <v>2.683E-2</v>
           </cell>
           <cell r="G12">
-            <v>4.0199999999999993E-2</v>
+            <v>1.5069999999999998E-2</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Slovenia</v>
+            <v>Sweden</v>
           </cell>
           <cell r="B13">
-            <v>5.4379999999999998E-2</v>
+            <v>0.10348</v>
           </cell>
           <cell r="C13">
-            <v>0.16449999999999998</v>
+            <v>0.14199000000000001</v>
           </cell>
           <cell r="D13">
-            <v>8.2210000000000005E-2</v>
+            <v>9.2070000000000013E-2</v>
           </cell>
           <cell r="E13">
-            <v>4.7600000000000003E-2</v>
+            <v>2.8119999999999992E-2</v>
           </cell>
           <cell r="F13">
-            <v>1.9359999999999999E-2</v>
+            <v>3.0079999999999999E-2</v>
           </cell>
           <cell r="G13">
-            <v>6.2199999999999998E-3</v>
+            <v>2.9559999999999999E-2</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Slovak Republic</v>
+            <v>Belgium</v>
           </cell>
           <cell r="B14">
-            <v>4.2050000000000004E-2</v>
+            <v>0.11223000000000001</v>
           </cell>
           <cell r="C14">
-            <v>0.15701999999999999</v>
+            <v>0.12875</v>
           </cell>
           <cell r="D14">
-            <v>7.7609999999999998E-2</v>
+            <v>6.7589999999999997E-2</v>
           </cell>
           <cell r="E14">
-            <v>4.6039999999999998E-2</v>
+            <v>3.8309999999999997E-2</v>
           </cell>
           <cell r="F14">
-            <v>3.0289999999999997E-2</v>
+            <v>3.7659999999999999E-2</v>
           </cell>
           <cell r="G14">
-            <v>4.7999999999999996E-3</v>
+            <v>3.5610000000000003E-2</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Iceland</v>
+            <v>Slovak Republic</v>
           </cell>
           <cell r="B15">
-            <v>0.15501000000000001</v>
+            <v>4.2050000000000004E-2</v>
           </cell>
           <cell r="C15">
-            <v>3.2780000000000004E-2</v>
+            <v>0.15701999999999999</v>
           </cell>
           <cell r="D15">
-            <v>8.5449999999999998E-2</v>
+            <v>7.7609999999999998E-2</v>
           </cell>
           <cell r="E15">
-            <v>3.2280000000000003E-2</v>
+            <v>4.6039999999999998E-2</v>
           </cell>
           <cell r="F15">
-            <v>2.0129999999999999E-2</v>
+            <v>3.0289999999999997E-2</v>
           </cell>
           <cell r="G15">
-            <v>2.0840000000000001E-2</v>
+            <v>4.7999999999999996E-3</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Hungary</v>
+            <v>Estonia</v>
           </cell>
           <cell r="B16">
-            <v>5.228E-2</v>
+            <v>6.8250000000000005E-2</v>
           </cell>
           <cell r="C16">
-            <v>0.11108000000000001</v>
+            <v>0.11613</v>
           </cell>
           <cell r="D16">
-            <v>9.7680000000000003E-2</v>
+            <v>9.1499999999999998E-2</v>
           </cell>
           <cell r="E16">
-            <v>5.8549999999999977E-2</v>
+            <v>4.2190000000000005E-2</v>
           </cell>
           <cell r="F16">
-            <v>1.1650000000000001E-2</v>
+            <v>1.5300000000000001E-2</v>
           </cell>
           <cell r="G16">
-            <v>8.6800000000000002E-3</v>
+            <v>1.8799999999999999E-3</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Czech Republic</v>
+            <v>Lithuania</v>
           </cell>
           <cell r="B17">
-            <v>3.0890000000000001E-2</v>
+            <v>7.6679999999999998E-2</v>
           </cell>
           <cell r="C17">
-            <v>0.16449000000000003</v>
+            <v>0.10348</v>
           </cell>
           <cell r="D17">
-            <v>7.5880000000000003E-2</v>
+            <v>8.584E-2</v>
           </cell>
           <cell r="E17">
-            <v>3.2939999999999997E-2</v>
+            <v>3.7489999999999996E-2</v>
           </cell>
           <cell r="F17">
-            <v>3.2219999999999999E-2</v>
+            <v>2.1360000000000001E-2</v>
           </cell>
           <cell r="G17">
-            <v>1.9500000000000001E-3</v>
+            <v>3.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>New Zealand</v>
+            <v>Netherlands</v>
           </cell>
           <cell r="B18">
-            <v>0.14394999999999999</v>
+            <v>8.6080000000000004E-2</v>
           </cell>
           <cell r="C18">
-            <v>0</v>
+            <v>0.13128999999999999</v>
           </cell>
           <cell r="D18">
-            <v>0.10351</v>
+            <v>7.5759999999999994E-2</v>
           </cell>
           <cell r="E18">
-            <v>2.2409999999999999E-2</v>
+            <v>4.6640000000000015E-2</v>
           </cell>
           <cell r="F18">
-            <v>4.8739999999999999E-2</v>
+            <v>3.9019999999999999E-2</v>
           </cell>
           <cell r="G18">
-            <v>1.9210000000000001E-2</v>
+            <v>1.7100000000000001E-2</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Estonia</v>
+            <v>Canada</v>
           </cell>
           <cell r="B19">
-            <v>6.8250000000000005E-2</v>
+            <v>0.12533</v>
           </cell>
           <cell r="C19">
-            <v>0.11613</v>
+            <v>5.5119999999999995E-2</v>
           </cell>
           <cell r="D19">
-            <v>9.1499999999999998E-2</v>
+            <v>4.5279999999999994E-2</v>
           </cell>
           <cell r="E19">
-            <v>4.2190000000000005E-2</v>
+            <v>2.7790000000000016E-2</v>
           </cell>
           <cell r="F19">
-            <v>1.5300000000000001E-2</v>
+            <v>3.9E-2</v>
           </cell>
           <cell r="G19">
-            <v>1.8799999999999999E-3</v>
+            <v>3.9620000000000002E-2</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>United Kingdom</v>
+            <v>Iceland</v>
           </cell>
           <cell r="B20">
-            <v>9.4090000000000007E-2</v>
+            <v>0.15501000000000001</v>
           </cell>
           <cell r="C20">
-            <v>6.8059999999999996E-2</v>
+            <v>3.2780000000000004E-2</v>
           </cell>
           <cell r="D20">
-            <v>6.7809999999999995E-2</v>
+            <v>8.5449999999999998E-2</v>
           </cell>
           <cell r="E20">
-            <v>3.4940000000000013E-2</v>
+            <v>3.2280000000000003E-2</v>
           </cell>
           <cell r="F20">
-            <v>2.648E-2</v>
+            <v>2.0129999999999999E-2</v>
           </cell>
           <cell r="G20">
-            <v>4.3380000000000002E-2</v>
+            <v>2.0840000000000001E-2</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Canada</v>
+            <v>Luxembourg</v>
           </cell>
           <cell r="B21">
-            <v>0.12533</v>
+            <v>0.10122</v>
           </cell>
           <cell r="C21">
-            <v>5.5119999999999995E-2</v>
+            <v>0.10564999999999999</v>
           </cell>
           <cell r="D21">
+            <v>6.0850000000000001E-2</v>
+          </cell>
+          <cell r="E21">
+            <v>3.212000000000001E-2</v>
+          </cell>
+          <cell r="F21">
             <v>4.5279999999999994E-2</v>
           </cell>
-          <cell r="E21">
-            <v>2.7790000000000016E-2</v>
-          </cell>
-          <cell r="F21">
-            <v>3.9E-2</v>
-          </cell>
           <cell r="G21">
-            <v>3.9620000000000002E-2</v>
+            <v>4.0199999999999993E-2</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Lithuania</v>
+            <v>Latvia</v>
           </cell>
           <cell r="B22">
-            <v>7.6679999999999998E-2</v>
+            <v>6.1089999999999998E-2</v>
           </cell>
           <cell r="C22">
-            <v>0.10348</v>
+            <v>9.9299999999999999E-2</v>
           </cell>
           <cell r="D22">
-            <v>8.584E-2</v>
+            <v>8.585000000000001E-2</v>
           </cell>
           <cell r="E22">
-            <v>3.7489999999999996E-2</v>
+            <v>4.8399999999999999E-2</v>
           </cell>
           <cell r="F22">
-            <v>2.1360000000000001E-2</v>
+            <v>8.5500000000000003E-3</v>
           </cell>
           <cell r="G22">
-            <v>3.0000000000000001E-3</v>
+            <v>8.94E-3</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Israel</v>
+            <v>Poland</v>
           </cell>
           <cell r="B23">
-            <v>7.8220000000000012E-2</v>
+            <v>5.1849999999999993E-2</v>
           </cell>
           <cell r="C23">
-            <v>5.9889999999999992E-2</v>
+            <v>0.13566999999999999</v>
           </cell>
           <cell r="D23">
-            <v>7.5399999999999995E-2</v>
+            <v>8.5860000000000006E-2</v>
           </cell>
           <cell r="E23">
-            <v>3.4360000000000016E-2</v>
+            <v>5.302999999999998E-2</v>
           </cell>
           <cell r="F23">
-            <v>3.5790000000000002E-2</v>
+            <v>2.6160000000000003E-2</v>
           </cell>
           <cell r="G23">
-            <v>3.8670000000000003E-2</v>
+            <v>1.282E-2</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Poland</v>
+            <v>Costa Rica</v>
           </cell>
           <cell r="B24">
-            <v>0</v>
+            <v>2.734E-2</v>
           </cell>
           <cell r="C24">
-            <v>0.13566999999999999</v>
+            <v>9.4729999999999995E-2</v>
           </cell>
           <cell r="D24">
-            <v>8.5860000000000006E-2</v>
+            <v>5.1119999999999999E-2</v>
           </cell>
           <cell r="E24">
-            <v>5.302999999999998E-2</v>
+            <v>3.6250000000000004E-2</v>
           </cell>
           <cell r="F24">
-            <v>2.6160000000000003E-2</v>
+            <v>2.4319999999999998E-2</v>
           </cell>
           <cell r="G24">
-            <v>1.282E-2</v>
+            <v>4.8999999999999998E-3</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Latvia</v>
+            <v>Greece</v>
           </cell>
           <cell r="B25">
-            <v>6.1089999999999998E-2</v>
+            <v>5.9980000000000006E-2</v>
           </cell>
           <cell r="C25">
-            <v>9.9299999999999999E-2</v>
+            <v>0.12805999999999998</v>
           </cell>
           <cell r="D25">
-            <v>8.585000000000001E-2</v>
+            <v>8.3909999999999998E-2</v>
           </cell>
           <cell r="E25">
-            <v>4.8399999999999999E-2</v>
+            <v>6.7140000000000019E-2</v>
           </cell>
           <cell r="F25">
-            <v>8.5500000000000003E-3</v>
+            <v>0</v>
           </cell>
           <cell r="G25">
-            <v>8.94E-3</v>
+            <v>2.9929999999999998E-2</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Greece</v>
+            <v>Portugal</v>
           </cell>
           <cell r="B26">
-            <v>0</v>
+            <v>6.9150000000000003E-2</v>
           </cell>
           <cell r="C26">
-            <v>0.12805999999999998</v>
+            <v>0.10586999999999999</v>
           </cell>
           <cell r="D26">
-            <v>0</v>
+            <v>9.0200000000000002E-2</v>
           </cell>
           <cell r="E26">
-            <v>0.15105000000000002</v>
+            <v>4.8109999999999986E-2</v>
           </cell>
           <cell r="F26">
-            <v>0</v>
+            <v>2.436E-2</v>
           </cell>
           <cell r="G26">
-            <v>2.9929999999999998E-2</v>
+            <v>1.5859999999999999E-2</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Spain</v>
+            <v>United Kingdom</v>
           </cell>
           <cell r="B27">
-            <v>0</v>
+            <v>9.4090000000000007E-2</v>
           </cell>
           <cell r="C27">
-            <v>0.13655</v>
+            <v>6.8059999999999996E-2</v>
           </cell>
           <cell r="D27">
-            <v>6.9349999999999995E-2</v>
+            <v>6.7809999999999995E-2</v>
           </cell>
           <cell r="E27">
-            <v>3.5640000000000005E-2</v>
+            <v>3.4940000000000013E-2</v>
           </cell>
           <cell r="F27">
-            <v>2.6960000000000001E-2</v>
+            <v>2.648E-2</v>
           </cell>
           <cell r="G27">
-            <v>2.7320000000000001E-2</v>
+            <v>4.3380000000000002E-2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Korea</v>
+            <v>Norway</v>
           </cell>
           <cell r="B28">
-            <v>4.3200000000000002E-2</v>
+            <v>0.10727</v>
           </cell>
           <cell r="C28">
-            <v>7.9149999999999998E-2</v>
+            <v>9.7249999999999989E-2</v>
           </cell>
           <cell r="D28">
-            <v>4.2969999999999994E-2</v>
+            <v>8.1610000000000002E-2</v>
           </cell>
           <cell r="E28">
-            <v>2.6110000000000008E-2</v>
+            <v>2.6929999999999996E-2</v>
           </cell>
           <cell r="F28">
-            <v>3.8309999999999997E-2</v>
+            <v>9.7180000000000002E-2</v>
           </cell>
           <cell r="G28">
-            <v>6.2740000000000004E-2</v>
+            <v>1.217E-2</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Portugal</v>
+            <v>Hungary</v>
           </cell>
           <cell r="B29">
-            <v>0</v>
+            <v>5.228E-2</v>
           </cell>
           <cell r="C29">
-            <v>0.10586999999999999</v>
+            <v>0.11108000000000001</v>
           </cell>
           <cell r="D29">
-            <v>9.0200000000000002E-2</v>
+            <v>9.7680000000000003E-2</v>
           </cell>
           <cell r="E29">
-            <v>4.8109999999999986E-2</v>
+            <v>5.8549999999999977E-2</v>
           </cell>
           <cell r="F29">
-            <v>2.436E-2</v>
+            <v>1.1650000000000001E-2</v>
           </cell>
           <cell r="G29">
-            <v>1.5859999999999999E-2</v>
+            <v>8.6800000000000002E-3</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Switzerland</v>
+            <v>Ireland</v>
           </cell>
           <cell r="B30">
-            <v>0.10299999999999999</v>
+            <v>6.5140000000000003E-2</v>
           </cell>
           <cell r="C30">
-            <v>6.7990000000000009E-2</v>
+            <v>3.3819999999999996E-2</v>
           </cell>
           <cell r="D30">
-            <v>3.159E-2</v>
+            <v>3.8949999999999999E-2</v>
           </cell>
           <cell r="E30">
-            <v>2.3230000000000001E-2</v>
+            <v>2.1530000000000001E-2</v>
           </cell>
           <cell r="F30">
-            <v>3.0040000000000001E-2</v>
+            <v>3.5950000000000003E-2</v>
           </cell>
           <cell r="G30">
-            <v>2.2339999999999999E-2</v>
+            <v>1.5190000000000002E-2</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>United States</v>
+            <v>Israel</v>
           </cell>
           <cell r="B31">
-            <v>0.10281999999999999</v>
+            <v>7.8220000000000012E-2</v>
           </cell>
           <cell r="C31">
-            <v>6.3539999999999999E-2</v>
+            <v>5.9889999999999992E-2</v>
           </cell>
           <cell r="D31">
-            <v>0</v>
+            <v>7.5399999999999995E-2</v>
           </cell>
           <cell r="E31">
-            <v>4.4059999999999995E-2</v>
+            <v>3.4360000000000016E-2</v>
           </cell>
           <cell r="F31">
-            <v>1.6049999999999998E-2</v>
+            <v>3.5790000000000002E-2</v>
           </cell>
           <cell r="G31">
-            <v>3.9329999999999997E-2</v>
+            <v>3.8670000000000003E-2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Costa Rica</v>
+            <v>New Zealand</v>
           </cell>
           <cell r="B32">
-            <v>2.734E-2</v>
+            <v>0.14394999999999999</v>
           </cell>
           <cell r="C32">
-            <v>9.4729999999999995E-2</v>
+            <v>0</v>
           </cell>
           <cell r="D32">
-            <v>5.1119999999999999E-2</v>
+            <v>0.10351</v>
           </cell>
           <cell r="E32">
-            <v>3.6250000000000004E-2</v>
+            <v>2.2409999999999999E-2</v>
           </cell>
           <cell r="F32">
-            <v>2.4319999999999998E-2</v>
+            <v>4.8739999999999999E-2</v>
           </cell>
           <cell r="G32">
-            <v>4.8999999999999998E-3</v>
+            <v>1.9210000000000001E-2</v>
           </cell>
         </row>
         <row r="33">
@@ -6656,48 +6970,48 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Ireland</v>
+            <v>Korea</v>
           </cell>
           <cell r="B34">
-            <v>6.5140000000000003E-2</v>
+            <v>4.3200000000000002E-2</v>
           </cell>
           <cell r="C34">
-            <v>3.3819999999999996E-2</v>
+            <v>7.9149999999999998E-2</v>
           </cell>
           <cell r="D34">
-            <v>3.8949999999999999E-2</v>
+            <v>4.2969999999999994E-2</v>
           </cell>
           <cell r="E34">
-            <v>2.1530000000000001E-2</v>
+            <v>2.6110000000000008E-2</v>
           </cell>
           <cell r="F34">
-            <v>3.5950000000000003E-2</v>
+            <v>3.8309999999999997E-2</v>
           </cell>
           <cell r="G34">
-            <v>1.5190000000000002E-2</v>
+            <v>6.2740000000000004E-2</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>Chile</v>
+            <v>Mexico</v>
           </cell>
           <cell r="B35">
-            <v>2.298E-2</v>
+            <v>0.04</v>
           </cell>
           <cell r="C35">
-            <v>1.1699999999999999E-2</v>
+            <v>2.6019999999999998E-2</v>
           </cell>
           <cell r="D35">
-            <v>9.4689999999999996E-2</v>
+            <v>4.2869999999999998E-2</v>
           </cell>
           <cell r="E35">
-            <v>2.3109999999999992E-2</v>
+            <v>1.9439999999999999E-2</v>
           </cell>
           <cell r="F35">
-            <v>3.8010000000000002E-2</v>
+            <v>3.4290000000000001E-2</v>
           </cell>
           <cell r="G35">
-            <v>1.0629999999999999E-2</v>
+            <v>3.0100000000000001E-3</v>
           </cell>
         </row>
         <row r="36">
@@ -6725,25 +7039,25 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>Mexico</v>
+            <v>Chile</v>
           </cell>
           <cell r="B37">
-            <v>2.5000000000000001E-3</v>
+            <v>2.298E-2</v>
           </cell>
           <cell r="C37">
-            <v>2.6019999999999998E-2</v>
+            <v>1.1699999999999999E-2</v>
           </cell>
           <cell r="D37">
-            <v>4.2869999999999998E-2</v>
+            <v>9.4689999999999996E-2</v>
           </cell>
           <cell r="E37">
-            <v>1.9439999999999999E-2</v>
+            <v>2.3109999999999992E-2</v>
           </cell>
           <cell r="F37">
-            <v>3.4290000000000001E-2</v>
+            <v>3.8010000000000002E-2</v>
           </cell>
           <cell r="G37">
-            <v>3.0100000000000001E-3</v>
+            <v>1.0629999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -7053,11 +7367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0F03CA-A2A7-3A48-84D6-F5A490020046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE75D32C-7D47-F446-ADCE-893FB43E9F6B}">
   <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="E6" sqref="E6:BP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14659,47 +14973,47 @@
     <mergeCell ref="D5:BP5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D0601345-4806-2249-BE68-770FF19B6526}"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[GOV]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{37301261-8717-ED42-91F5-1EF040419726}"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[VAR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{208EAAFC-B3C1-3C46-8CBC-161F2D2371CE}"/>
-    <hyperlink ref="D4" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[VAR].[TAXGDP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{29E76B63-6633-E24B-B8C7-BFC4AEC9CA10}"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[TAX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FA194029-B83C-024A-8E5D-05B247C54EF6}"/>
-    <hyperlink ref="A12" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B8BF78FE-C6FA-3B4B-8A3A-2276A077E32D}"/>
-    <hyperlink ref="A13" r:id="rId7" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{AEA6D78F-8C49-794B-92B6-3467D4EBFBDE}"/>
-    <hyperlink ref="A14" r:id="rId8" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[CAN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{606AB4FC-6D7B-794A-9FD9-F954B2032E0B}"/>
-    <hyperlink ref="A15" r:id="rId9" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[CHL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{651B87D8-EDE0-A14D-97A2-44F79D82D0BD}"/>
-    <hyperlink ref="A16" r:id="rId10" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[COL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3F54B9AF-B576-DC40-B052-45B3F32ED2F1}"/>
-    <hyperlink ref="A17" r:id="rId11" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[CRI]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F9FA6B8E-F6AB-834B-9FA1-64B1382C310B}"/>
-    <hyperlink ref="A18" r:id="rId12" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4AB7634F-ED49-1F4C-9F52-F6945544E9A3}"/>
-    <hyperlink ref="A19" r:id="rId13" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4E86DEC1-A791-BD49-B901-2BBAF8B8762E}"/>
-    <hyperlink ref="A20" r:id="rId14" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[EST]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{182CA84D-D6F4-FE4F-A69A-C97841DEA48C}"/>
-    <hyperlink ref="A21" r:id="rId15" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1708EF8C-D021-964B-AFB4-6FCD3D996DDB}"/>
-    <hyperlink ref="A22" r:id="rId16" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[FRA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4DE54D7C-E992-C148-BC7B-24344BB759E6}"/>
-    <hyperlink ref="A23" r:id="rId17" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{BC8D234F-8856-A54A-B6A0-3F1F4619A1CB}"/>
-    <hyperlink ref="A24" r:id="rId18" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[GRC]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{041D61F4-2B3E-E647-A2DA-DC2CEAF0BFE4}"/>
-    <hyperlink ref="A25" r:id="rId19" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4EE200FA-640B-A647-BBEE-A60453BAC349}"/>
-    <hyperlink ref="A26" r:id="rId20" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[ISL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A52D4BCF-FADD-2241-B641-94697196D9D8}"/>
-    <hyperlink ref="A27" r:id="rId21" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{ADE1017B-5C99-1C4A-9BD5-4F32F4D3D4A6}"/>
-    <hyperlink ref="A28" r:id="rId22" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{16BBCE64-01A4-3B44-9E6B-533C45648E1C}"/>
-    <hyperlink ref="A29" r:id="rId23" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[ITA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{2EBF8D4C-9E32-9548-9C56-DC11D082A6AD}"/>
-    <hyperlink ref="A30" r:id="rId24" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{47FEFAA2-DE71-4E4C-B3A5-84E939B0634B}"/>
-    <hyperlink ref="A31" r:id="rId25" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{C72F9E63-836D-7440-B8FD-0E4DCD6BC45F}"/>
-    <hyperlink ref="A32" r:id="rId26" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[LTU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{837070A1-76DA-C84B-915F-FFCC85E6870D}"/>
-    <hyperlink ref="A33" r:id="rId27" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[LUX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{409B7031-2BA0-A449-ADD2-1BA37C871357}"/>
-    <hyperlink ref="A34" r:id="rId28" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[MEX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{92764A4A-813F-284A-B3AA-3DCEFF7FC6B0}"/>
-    <hyperlink ref="A35" r:id="rId29" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{BFBB9C3F-4250-7149-977D-6B076D1CEDAC}"/>
-    <hyperlink ref="A36" r:id="rId30" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[NZL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6348D087-0095-1745-806B-9456A8CF8977}"/>
-    <hyperlink ref="A37" r:id="rId31" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0770A432-83DD-BA4B-945F-441D632FF3ED}"/>
-    <hyperlink ref="A38" r:id="rId32" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[POL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0EE92BF1-B4C6-BC44-873D-666B447B76A5}"/>
-    <hyperlink ref="A39" r:id="rId33" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[PRT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{5455352A-67BF-D349-9AB1-1B70DAD2E644}"/>
-    <hyperlink ref="A40" r:id="rId34" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[SVK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{C3E2A8C2-206F-DD43-BDB8-2DCC00F238A3}"/>
-    <hyperlink ref="A41" r:id="rId35" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[SVN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FCE0271D-7C47-6C4C-9FF4-F9BF168FCE52}"/>
-    <hyperlink ref="A42" r:id="rId36" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{EF175799-0F94-6047-BEDB-4AD067CA5493}"/>
-    <hyperlink ref="A43" r:id="rId37" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[SWE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{C0524CB7-2AE2-7B40-9473-395BACAD5AF6}"/>
-    <hyperlink ref="A44" r:id="rId38" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3C0A983D-6D73-4F46-90DC-81491C5CC805}"/>
-    <hyperlink ref="A45" r:id="rId39" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[TUR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{C8C816A0-1CF9-F24B-BCD5-6208ACEE74FC}"/>
-    <hyperlink ref="A46" r:id="rId40" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[GBR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D1A9202A-2B56-1949-9625-730CC1C0B257}"/>
-    <hyperlink ref="A47" r:id="rId41" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[USA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{34F20DA0-5BA9-EE42-B313-3A7E33035A1E}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{E83EB883-7443-254B-8B5C-852F21649E5B}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[GOV]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{06F7642F-69DB-324E-9A21-1C33A10E6C88}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[VAR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{BCEAD810-93AC-0D42-A36C-3A5437C4B452}"/>
+    <hyperlink ref="D4" r:id="rId4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[VAR].[TAXGDP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A4616E0C-1B29-2B49-B9AE-8402FC60D6F5}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[TAX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{58BB50EC-246F-8747-B15F-9BC316C1800D}"/>
+    <hyperlink ref="A12" r:id="rId6" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A0306B97-576C-9243-BCC1-6CCE09CA5386}"/>
+    <hyperlink ref="A13" r:id="rId7" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F5CF3525-5BA6-064C-9E78-948A7F6A5EF7}"/>
+    <hyperlink ref="A14" r:id="rId8" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[CAN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4A9D3EB7-D581-3A41-8495-53771770DDB0}"/>
+    <hyperlink ref="A15" r:id="rId9" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[CHL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{C38A21A3-1078-4449-8394-D1E7500CFD69}"/>
+    <hyperlink ref="A16" r:id="rId10" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[COL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{EDF0DB42-28AE-0842-8789-912372FD3358}"/>
+    <hyperlink ref="A17" r:id="rId11" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[CRI]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0D489470-AB4D-694A-A5EF-942A3D4A42C1}"/>
+    <hyperlink ref="A18" r:id="rId12" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B084E96B-426C-5B45-86CE-75EC8E0A381B}"/>
+    <hyperlink ref="A19" r:id="rId13" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D69E858E-D2CD-124C-87CF-D2FA1ECFC416}"/>
+    <hyperlink ref="A20" r:id="rId14" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[EST]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A27BB802-49E2-9848-A5CB-322A4E7629A1}"/>
+    <hyperlink ref="A21" r:id="rId15" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{DCB553A2-603B-134C-BA32-8F4020B53EE1}"/>
+    <hyperlink ref="A22" r:id="rId16" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[FRA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{9F6406BD-EEEF-234D-AE2E-8F06CCE9E835}"/>
+    <hyperlink ref="A23" r:id="rId17" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{82B326C9-85F7-AF44-8AE7-97D6CB720DA9}"/>
+    <hyperlink ref="A24" r:id="rId18" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[GRC]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A177C44A-C39B-494C-B371-BCDCCEFD1D90}"/>
+    <hyperlink ref="A25" r:id="rId19" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FA521E08-F77D-A14B-BE67-BA72B2B56773}"/>
+    <hyperlink ref="A26" r:id="rId20" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[ISL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{AE28C0F4-0745-8541-B3FA-BA114955290A}"/>
+    <hyperlink ref="A27" r:id="rId21" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[IRL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{493F34C9-0936-7D4C-820F-8B5BB115026B}"/>
+    <hyperlink ref="A28" r:id="rId22" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{EBAE6E46-CF54-4E4F-A350-04AB1ADF3D47}"/>
+    <hyperlink ref="A29" r:id="rId23" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[ITA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{E3CCF2F3-CB4E-C049-B3D8-25FB233CAF47}"/>
+    <hyperlink ref="A30" r:id="rId24" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{7D31F678-3E45-D14B-9EED-C0C7DCEA9CB8}"/>
+    <hyperlink ref="A31" r:id="rId25" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{305FC71B-DC2C-AB45-A572-EB6DE21EAEDD}"/>
+    <hyperlink ref="A32" r:id="rId26" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[LTU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{E00E38F1-4387-0E46-B9F1-A165BEBE961A}"/>
+    <hyperlink ref="A33" r:id="rId27" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[LUX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0974679C-3D1F-5549-BBD9-2E55412341DF}"/>
+    <hyperlink ref="A34" r:id="rId28" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[MEX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{5637AA6D-01EC-3347-BA7B-49EF3962D9EB}"/>
+    <hyperlink ref="A35" r:id="rId29" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{DCA0C607-C54D-7E4E-9985-594EE9D58A6B}"/>
+    <hyperlink ref="A36" r:id="rId30" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[NZL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{2794AB0E-FBC5-3942-B5B0-A63A1D162654}"/>
+    <hyperlink ref="A37" r:id="rId31" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6DCB515D-F830-D84C-973E-CA059AB5A270}"/>
+    <hyperlink ref="A38" r:id="rId32" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[POL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{8EC25435-C51A-2545-8017-9D69D12BAF46}"/>
+    <hyperlink ref="A39" r:id="rId33" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[PRT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3AFB149C-40CF-E440-8A80-AAABA1C47338}"/>
+    <hyperlink ref="A40" r:id="rId34" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[SVK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FC500403-D258-DE49-B8E0-1FF7AEE432D0}"/>
+    <hyperlink ref="A41" r:id="rId35" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[SVN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{AA74E4F4-3F6A-FD44-8F81-27CE65B3E17A}"/>
+    <hyperlink ref="A42" r:id="rId36" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6C3887FC-4301-6245-AEAE-AB8CBE6F4FBC}"/>
+    <hyperlink ref="A43" r:id="rId37" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[SWE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{2D993A9B-B90B-4A4F-9CED-CC42F07B5930}"/>
+    <hyperlink ref="A44" r:id="rId38" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D48C21AD-50C8-E74F-8405-B76316A94B6A}"/>
+    <hyperlink ref="A45" r:id="rId39" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[TUR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{DAB2FFE1-09FD-D546-B0E6-B8AE0796B56C}"/>
+    <hyperlink ref="A46" r:id="rId40" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[GBR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{E55597EC-52F8-054E-8874-5693C9DBD0D9}"/>
+    <hyperlink ref="A47" r:id="rId41" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=RS_GBL&amp;Coords=[COU].[USA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{9DC9CCA7-F9B1-D24B-93EB-A3A3882D617B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14707,11 +15021,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5AA60A-5552-B440-AA77-EBDB3EC957EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C3C5A-1580-2247-9D48-675FD0C0CE33}">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="E6" sqref="E6:BP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14753,48 +15067,48 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="str">
-        <f>'OECD 2021-data'!A19</f>
-        <v>Denmark</v>
+        <f>'OECD 2021-original'!A12</f>
+        <v>Austria</v>
       </c>
       <c r="B2" s="42">
-        <f>'OECD 2021-data'!G19/100 + 'OECD 2021-data'!L19/100</f>
-        <v>0.26998</v>
+        <f>'OECD 2021-original'!G12/100 + 'OECD 2021-original'!L12/100</f>
+        <v>0.10050000000000001</v>
       </c>
       <c r="C2" s="42">
-        <f>'OECD 2021-data'!M19/100+'OECD 2021-data'!Z19/100</f>
-        <v>3.2599999999999999E-3</v>
+        <f>'OECD 2021-original'!M12/100+'OECD 2021-original'!Z12/100</f>
+        <v>0.18211000000000002</v>
       </c>
       <c r="D2" s="42">
-        <f>'OECD 2021-data'!AS19/100</f>
-        <v>9.6430000000000002E-2</v>
+        <f>'OECD 2021-original'!AS12/100</f>
+        <v>7.6350000000000001E-2</v>
       </c>
       <c r="E2" s="42">
-        <f>'OECD 2021-data'!AP19/100-D2</f>
-        <v>4.2730000000000004E-2</v>
+        <f>'OECD 2021-original'!AP12/100-D2</f>
+        <v>3.9879999999999999E-2</v>
       </c>
       <c r="F2" s="42">
-        <f>'OECD 2021-data'!I19/100</f>
-        <v>3.739E-2</v>
+        <f>'OECD 2021-original'!I12/100</f>
+        <v>2.759E-2</v>
       </c>
       <c r="G2" s="42">
-        <f>('OECD 2021-data'!H19+'OECD 2021-data'!AA19)/100</f>
-        <v>1.8939999999999999E-2</v>
+        <f>('OECD 2021-original'!H12+'OECD 2021-original'!AA12)/100</f>
+        <v>6.3299999999999997E-3</v>
       </c>
       <c r="H2" s="42">
         <f>SUM(B2:G2)</f>
-        <v>0.46872999999999998</v>
+        <v>0.43276000000000009</v>
       </c>
       <c r="I2" s="43">
         <f>B2+C2</f>
-        <v>0.27323999999999998</v>
+        <v>0.28261000000000003</v>
       </c>
       <c r="J2" s="43">
         <f>I2/H2</f>
-        <v>0.58293687197320421</v>
+        <v>0.65304094648303901</v>
       </c>
       <c r="K2" s="43">
         <f>(D2+E2)/H2</f>
-        <v>0.29688733385957805</v>
+        <v>0.26857842684166738</v>
       </c>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
@@ -14802,48 +15116,48 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="40" t="str">
-        <f>'OECD 2021-data'!A22</f>
-        <v>France</v>
+        <f>'OECD 2021-original'!A23</f>
+        <v>Germany</v>
       </c>
       <c r="B3" s="42">
-        <f>'OECD 2021-data'!G22/100 + 'OECD 2021-data'!L22/100</f>
-        <v>9.4760000000000011E-2</v>
+        <f>'OECD 2021-original'!G23/100 + 'OECD 2021-original'!L23/100</f>
+        <v>0.10517</v>
       </c>
       <c r="C3" s="42">
-        <f>'OECD 2021-data'!M22/100+'OECD 2021-data'!Z22/100</f>
-        <v>0.16639999999999999</v>
+        <f>'OECD 2021-original'!M23/100+'OECD 2021-original'!Z23/100</f>
+        <v>0.14879000000000001</v>
       </c>
       <c r="D3" s="42">
-        <f>'OECD 2021-data'!AS22/100</f>
-        <v>7.4009999999999992E-2</v>
+        <f>'OECD 2021-original'!AS23/100</f>
+        <v>7.2349999999999998E-2</v>
       </c>
       <c r="E3" s="42">
-        <f>'OECD 2021-data'!AP22/100-D3</f>
-        <v>4.8399999999999999E-2</v>
+        <f>'OECD 2021-original'!AP23/100-D3</f>
+        <v>3.2810000000000006E-2</v>
       </c>
       <c r="F3" s="42">
-        <f>'OECD 2021-data'!I22/100</f>
-        <v>2.5329999999999998E-2</v>
+        <f>'OECD 2021-original'!I23/100</f>
+        <v>2.35E-2</v>
       </c>
       <c r="G3" s="42">
-        <f>('OECD 2021-data'!H22+'OECD 2021-data'!AA22)/100</f>
-        <v>3.823E-2</v>
+        <f>('OECD 2021-original'!H23+'OECD 2021-original'!AA23)/100</f>
+        <v>1.2430000000000002E-2</v>
       </c>
       <c r="H3" s="42">
         <f>SUM(B3:G3)</f>
-        <v>0.44712999999999997</v>
+        <v>0.39505000000000001</v>
       </c>
       <c r="I3" s="43">
         <f>B3+C3</f>
-        <v>0.26116</v>
+        <v>0.25396000000000002</v>
       </c>
       <c r="J3" s="43">
         <f>I3/H3</f>
-        <v>0.58408069241607585</v>
+        <v>0.64285533476775092</v>
       </c>
       <c r="K3" s="43">
         <f>(D3+E3)/H3</f>
-        <v>0.27376825531724552</v>
+        <v>0.26619415263890644</v>
       </c>
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
@@ -14851,48 +15165,48 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="40" t="str">
-        <f>'OECD 2021-data'!A12</f>
-        <v>Austria</v>
+        <f>'OECD 2021-original'!A47</f>
+        <v>United States</v>
       </c>
       <c r="B4" s="42">
-        <f>'OECD 2021-data'!G12/100 + 'OECD 2021-data'!L12/100</f>
-        <v>0.10050000000000001</v>
+        <f>'OECD 2021-original'!G47/100 + 'OECD 2021-original'!L47/100</f>
+        <v>0.10281999999999999</v>
       </c>
       <c r="C4" s="42">
-        <f>'OECD 2021-data'!M12/100+'OECD 2021-data'!Z12/100</f>
-        <v>0.18211000000000002</v>
+        <f>'OECD 2021-original'!M47/100+'OECD 2021-original'!Z47/100</f>
+        <v>6.3539999999999999E-2</v>
       </c>
       <c r="D4" s="42">
-        <f>'OECD 2021-data'!AS12/100</f>
-        <v>7.6350000000000001E-2</v>
+        <f>'OECD 2021-original'!AS47/100</f>
+        <v>0</v>
       </c>
       <c r="E4" s="42">
-        <f>'OECD 2021-data'!AP12/100-D4</f>
-        <v>3.9879999999999999E-2</v>
+        <f>'OECD 2021-original'!AP47/100-D4</f>
+        <v>4.4059999999999995E-2</v>
       </c>
       <c r="F4" s="42">
-        <f>'OECD 2021-data'!I12/100</f>
-        <v>2.759E-2</v>
+        <f>'OECD 2021-original'!I47/100</f>
+        <v>1.6049999999999998E-2</v>
       </c>
       <c r="G4" s="42">
-        <f>('OECD 2021-data'!H12+'OECD 2021-data'!AA12)/100</f>
-        <v>6.3299999999999997E-3</v>
+        <f>('OECD 2021-original'!H47+'OECD 2021-original'!AA47)/100</f>
+        <v>3.9329999999999997E-2</v>
       </c>
       <c r="H4" s="42">
         <f>SUM(B4:G4)</f>
-        <v>0.43276000000000009</v>
+        <v>0.26579999999999998</v>
       </c>
       <c r="I4" s="43">
         <f>B4+C4</f>
-        <v>0.28261000000000003</v>
+        <v>0.16636000000000001</v>
       </c>
       <c r="J4" s="43">
         <f>I4/H4</f>
-        <v>0.65304094648303901</v>
+        <v>0.62588412340105348</v>
       </c>
       <c r="K4" s="43">
         <f>(D4+E4)/H4</f>
-        <v>0.26857842684166738</v>
+        <v>0.16576373212942061</v>
       </c>
       <c r="L4" s="43"/>
       <c r="M4" s="43"/>
@@ -14900,48 +15214,48 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="40" t="str">
-        <f>'OECD 2021-data'!A21</f>
-        <v>Finland</v>
+        <f>'OECD 2021-original'!A44</f>
+        <v>Switzerland</v>
       </c>
       <c r="B5" s="42">
-        <f>'OECD 2021-data'!G21/100 + 'OECD 2021-data'!L21/100</f>
-        <v>0.12837999999999999</v>
+        <f>'OECD 2021-original'!G44/100 + 'OECD 2021-original'!L44/100</f>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C5" s="42">
-        <f>'OECD 2021-data'!M21/100+'OECD 2021-data'!Z21/100</f>
-        <v>0.11951000000000001</v>
+        <f>'OECD 2021-original'!M44/100+'OECD 2021-original'!Z44/100</f>
+        <v>6.7990000000000009E-2</v>
       </c>
       <c r="D5" s="42">
-        <f>'OECD 2021-data'!AS21/100</f>
-        <v>9.3689999999999996E-2</v>
+        <f>'OECD 2021-original'!AS44/100</f>
+        <v>3.159E-2</v>
       </c>
       <c r="E5" s="42">
-        <f>'OECD 2021-data'!AP21/100-D5</f>
-        <v>4.6010000000000023E-2</v>
+        <f>'OECD 2021-original'!AP44/100-D5</f>
+        <v>2.3230000000000001E-2</v>
       </c>
       <c r="F5" s="42">
-        <f>'OECD 2021-data'!I21/100</f>
-        <v>2.683E-2</v>
+        <f>'OECD 2021-original'!I44/100</f>
+        <v>3.0040000000000001E-2</v>
       </c>
       <c r="G5" s="42">
-        <f>('OECD 2021-data'!H21+'OECD 2021-data'!AA21)/100</f>
-        <v>1.5069999999999998E-2</v>
+        <f>('OECD 2021-original'!H44+'OECD 2021-original'!AA44)/100</f>
+        <v>2.2339999999999999E-2</v>
       </c>
       <c r="H5" s="42">
         <f>SUM(B5:G5)</f>
-        <v>0.42948999999999998</v>
+        <v>0.27819000000000005</v>
       </c>
       <c r="I5" s="43">
         <f>B5+C5</f>
-        <v>0.24789</v>
+        <v>0.17099</v>
       </c>
       <c r="J5" s="43">
         <f>I5/H5</f>
-        <v>0.57717292602854553</v>
+        <v>0.61465185664473909</v>
       </c>
       <c r="K5" s="43">
         <f>(D5+E5)/H5</f>
-        <v>0.3252695056927985</v>
+        <v>0.19705956360760629</v>
       </c>
       <c r="L5" s="43"/>
       <c r="M5" s="43"/>
@@ -14949,48 +15263,48 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="40" t="str">
-        <f>'OECD 2021-data'!A43</f>
-        <v>Sweden</v>
+        <f>'OECD 2021-original'!A29</f>
+        <v>Italy</v>
       </c>
       <c r="B6" s="42">
-        <f>'OECD 2021-data'!G43/100 + 'OECD 2021-data'!L43/100</f>
-        <v>0.10348</v>
+        <f>'OECD 2021-original'!G29/100 + 'OECD 2021-original'!L29/100</f>
+        <v>0.11885000000000001</v>
       </c>
       <c r="C6" s="42">
-        <f>'OECD 2021-data'!M43/100+'OECD 2021-data'!Z43/100</f>
-        <v>0.14199000000000001</v>
+        <f>'OECD 2021-original'!M29/100+'OECD 2021-original'!Z29/100</f>
+        <v>0.13506000000000001</v>
       </c>
       <c r="D6" s="42">
-        <f>'OECD 2021-data'!AS43/100</f>
-        <v>9.2070000000000013E-2</v>
+        <f>'OECD 2021-original'!AS29/100</f>
+        <v>6.8059999999999996E-2</v>
       </c>
       <c r="E6" s="42">
-        <f>'OECD 2021-data'!AP43/100-D6</f>
-        <v>2.8119999999999992E-2</v>
+        <f>'OECD 2021-original'!AP29/100-D6</f>
+        <v>5.3530000000000008E-2</v>
       </c>
       <c r="F6" s="42">
-        <f>'OECD 2021-data'!I43/100</f>
-        <v>3.0079999999999999E-2</v>
+        <f>'OECD 2021-original'!I29/100</f>
+        <v>1.9210000000000001E-2</v>
       </c>
       <c r="G6" s="42">
-        <f>('OECD 2021-data'!H43+'OECD 2021-data'!AA43)/100</f>
-        <v>2.9559999999999999E-2</v>
+        <f>('OECD 2021-original'!H29+'OECD 2021-original'!AA29)/100</f>
+        <v>2.5430000000000001E-2</v>
       </c>
       <c r="H6" s="42">
         <f>SUM(B6:G6)</f>
-        <v>0.42530000000000001</v>
+        <v>0.42014000000000007</v>
       </c>
       <c r="I6" s="43">
         <f>B6+C6</f>
-        <v>0.24547000000000002</v>
+        <v>0.25391000000000002</v>
       </c>
       <c r="J6" s="43">
         <f>I6/H6</f>
-        <v>0.5771690571361392</v>
+        <v>0.60434617032417759</v>
       </c>
       <c r="K6" s="43">
         <f>(D6+E6)/H6</f>
-        <v>0.28260051728191865</v>
+        <v>0.289403532155948</v>
       </c>
       <c r="L6" s="43"/>
       <c r="M6" s="43"/>
@@ -14998,48 +15312,48 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="40" t="str">
-        <f>'OECD 2021-data'!A37</f>
-        <v>Norway</v>
+        <f>'OECD 2021-original'!A41</f>
+        <v>Slovenia</v>
       </c>
       <c r="B7" s="42">
-        <f>'OECD 2021-data'!G37/100 + 'OECD 2021-data'!L37/100</f>
-        <v>0.10727</v>
+        <f>'OECD 2021-original'!G41/100 + 'OECD 2021-original'!L41/100</f>
+        <v>5.4379999999999998E-2</v>
       </c>
       <c r="C7" s="42">
-        <f>'OECD 2021-data'!M37/100+'OECD 2021-data'!Z37/100</f>
-        <v>9.7249999999999989E-2</v>
+        <f>'OECD 2021-original'!M41/100+'OECD 2021-original'!Z41/100</f>
+        <v>0.16449999999999998</v>
       </c>
       <c r="D7" s="42">
-        <f>'OECD 2021-data'!AS37/100</f>
-        <v>8.1610000000000002E-2</v>
+        <f>'OECD 2021-original'!AS41/100</f>
+        <v>8.2210000000000005E-2</v>
       </c>
       <c r="E7" s="42">
-        <f>'OECD 2021-data'!AP37/100-D7</f>
-        <v>2.6929999999999996E-2</v>
+        <f>'OECD 2021-original'!AP41/100-D7</f>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="F7" s="42">
-        <f>'OECD 2021-data'!I37/100</f>
-        <v>9.7180000000000002E-2</v>
+        <f>'OECD 2021-original'!I41/100</f>
+        <v>1.9359999999999999E-2</v>
       </c>
       <c r="G7" s="42">
-        <f>('OECD 2021-data'!H37+'OECD 2021-data'!AA37)/100</f>
-        <v>1.217E-2</v>
+        <f>('OECD 2021-original'!H41+'OECD 2021-original'!AA41)/100</f>
+        <v>6.2199999999999998E-3</v>
       </c>
       <c r="H7" s="42">
         <f>SUM(B7:G7)</f>
-        <v>0.42241000000000001</v>
+        <v>0.37426999999999994</v>
       </c>
       <c r="I7" s="43">
         <f>B7+C7</f>
-        <v>0.20451999999999998</v>
+        <v>0.21887999999999996</v>
       </c>
       <c r="J7" s="43">
         <f>I7/H7</f>
-        <v>0.48417414360455474</v>
+        <v>0.58481844657600124</v>
       </c>
       <c r="K7" s="43">
         <f>(D7+E7)/H7</f>
-        <v>0.25695414407802847</v>
+        <v>0.34683517246907319</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
@@ -15047,48 +15361,48 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="40" t="str">
-        <f>'OECD 2021-data'!A13</f>
-        <v>Belgium</v>
+        <f>'OECD 2021-original'!A22</f>
+        <v>France</v>
       </c>
       <c r="B8" s="42">
-        <f>'OECD 2021-data'!G13/100 + 'OECD 2021-data'!L13/100</f>
-        <v>0.11223000000000001</v>
+        <f>'OECD 2021-original'!G22/100 + 'OECD 2021-original'!L22/100</f>
+        <v>9.4760000000000011E-2</v>
       </c>
       <c r="C8" s="42">
-        <f>'OECD 2021-data'!M13/100+'OECD 2021-data'!Z13/100</f>
-        <v>0.12875</v>
+        <f>'OECD 2021-original'!M22/100+'OECD 2021-original'!Z22/100</f>
+        <v>0.16639999999999999</v>
       </c>
       <c r="D8" s="42">
-        <f>'OECD 2021-data'!AS13/100</f>
-        <v>6.7589999999999997E-2</v>
+        <f>'OECD 2021-original'!AS22/100</f>
+        <v>7.4009999999999992E-2</v>
       </c>
       <c r="E8" s="42">
-        <f>'OECD 2021-data'!AP13/100-D8</f>
-        <v>3.8309999999999997E-2</v>
+        <f>'OECD 2021-original'!AP22/100-D8</f>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="F8" s="42">
-        <f>'OECD 2021-data'!I13/100</f>
-        <v>3.7659999999999999E-2</v>
+        <f>'OECD 2021-original'!I22/100</f>
+        <v>2.5329999999999998E-2</v>
       </c>
       <c r="G8" s="42">
-        <f>('OECD 2021-data'!H13+'OECD 2021-data'!AA13)/100</f>
-        <v>3.5610000000000003E-2</v>
+        <f>('OECD 2021-original'!H22+'OECD 2021-original'!AA22)/100</f>
+        <v>3.823E-2</v>
       </c>
       <c r="H8" s="42">
         <f>SUM(B8:G8)</f>
-        <v>0.42015000000000002</v>
+        <v>0.44712999999999997</v>
       </c>
       <c r="I8" s="43">
         <f>B8+C8</f>
-        <v>0.24098000000000003</v>
+        <v>0.26116</v>
       </c>
       <c r="J8" s="43">
         <f>I8/H8</f>
-        <v>0.57355706295370701</v>
+        <v>0.58408069241607585</v>
       </c>
       <c r="K8" s="43">
         <f>(D8+E8)/H8</f>
-        <v>0.25205283827204567</v>
+        <v>0.27376825531724552</v>
       </c>
       <c r="L8" s="43"/>
       <c r="M8" s="43"/>
@@ -15096,48 +15410,47 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="40" t="str">
-        <f>'OECD 2021-data'!A29</f>
-        <v>Italy</v>
+        <f>'OECD 2021-original'!A42</f>
+        <v>Spain</v>
       </c>
       <c r="B9" s="42">
-        <f>'OECD 2021-data'!G29/100 + 'OECD 2021-data'!L29/100</f>
-        <v>0.11885000000000001</v>
+        <v>8.6989999999999998E-2</v>
       </c>
       <c r="C9" s="42">
-        <f>'OECD 2021-data'!M29/100+'OECD 2021-data'!Z29/100</f>
-        <v>0.13506000000000001</v>
+        <f>'OECD 2021-original'!M42/100+'OECD 2021-original'!Z42/100</f>
+        <v>0.13655</v>
       </c>
       <c r="D9" s="42">
-        <f>'OECD 2021-data'!AS29/100</f>
-        <v>6.8059999999999996E-2</v>
+        <f>'OECD 2021-original'!AS42/100</f>
+        <v>6.9349999999999995E-2</v>
       </c>
       <c r="E9" s="42">
-        <f>'OECD 2021-data'!AP29/100-D9</f>
-        <v>5.3530000000000008E-2</v>
+        <f>'OECD 2021-original'!AP42/100-D9</f>
+        <v>3.5640000000000005E-2</v>
       </c>
       <c r="F9" s="42">
-        <f>'OECD 2021-data'!I29/100</f>
-        <v>1.9210000000000001E-2</v>
+        <f>'OECD 2021-original'!I42/100</f>
+        <v>2.6960000000000001E-2</v>
       </c>
       <c r="G9" s="42">
-        <f>('OECD 2021-data'!H29+'OECD 2021-data'!AA29)/100</f>
-        <v>2.5430000000000001E-2</v>
+        <f>('OECD 2021-original'!H42+'OECD 2021-original'!AA42)/100</f>
+        <v>2.7320000000000001E-2</v>
       </c>
       <c r="H9" s="42">
         <f>SUM(B9:G9)</f>
-        <v>0.42014000000000007</v>
+        <v>0.38280999999999998</v>
       </c>
       <c r="I9" s="43">
         <f>B9+C9</f>
-        <v>0.25391000000000002</v>
+        <v>0.22354000000000002</v>
       </c>
       <c r="J9" s="43">
         <f>I9/H9</f>
-        <v>0.60434617032417759</v>
+        <v>0.58394503800841158</v>
       </c>
       <c r="K9" s="43">
         <f>(D9+E9)/H9</f>
-        <v>0.289403532155948</v>
+        <v>0.27426138293148039</v>
       </c>
       <c r="L9" s="43"/>
       <c r="M9" s="43"/>
@@ -15145,48 +15458,48 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="40" t="str">
-        <f>'OECD 2021-data'!A35</f>
-        <v>Netherlands</v>
+        <f>'OECD 2021-original'!A19</f>
+        <v>Denmark</v>
       </c>
       <c r="B10" s="42">
-        <f>'OECD 2021-data'!G35/100 + 'OECD 2021-data'!L35/100</f>
-        <v>8.6080000000000004E-2</v>
+        <f>'OECD 2021-original'!G19/100 + 'OECD 2021-original'!L19/100</f>
+        <v>0.26998</v>
       </c>
       <c r="C10" s="42">
-        <f>'OECD 2021-data'!M35/100+'OECD 2021-data'!Z35/100</f>
-        <v>0.13128999999999999</v>
+        <f>'OECD 2021-original'!M19/100+'OECD 2021-original'!Z19/100</f>
+        <v>3.2599999999999999E-3</v>
       </c>
       <c r="D10" s="42">
-        <f>'OECD 2021-data'!AS35/100</f>
-        <v>7.5759999999999994E-2</v>
+        <f>'OECD 2021-original'!AS19/100</f>
+        <v>9.6430000000000002E-2</v>
       </c>
       <c r="E10" s="42">
-        <f>'OECD 2021-data'!AP35/100-D10</f>
-        <v>4.6640000000000015E-2</v>
+        <f>'OECD 2021-original'!AP19/100-D10</f>
+        <v>4.2730000000000004E-2</v>
       </c>
       <c r="F10" s="42">
-        <f>'OECD 2021-data'!I35/100</f>
-        <v>3.9019999999999999E-2</v>
+        <f>'OECD 2021-original'!I19/100</f>
+        <v>3.739E-2</v>
       </c>
       <c r="G10" s="42">
-        <f>('OECD 2021-data'!H35+'OECD 2021-data'!AA35)/100</f>
-        <v>1.7100000000000001E-2</v>
+        <f>('OECD 2021-original'!H19+'OECD 2021-original'!AA19)/100</f>
+        <v>1.8939999999999999E-2</v>
       </c>
       <c r="H10" s="42">
         <f>SUM(B10:G10)</f>
-        <v>0.39589000000000002</v>
+        <v>0.46872999999999998</v>
       </c>
       <c r="I10" s="43">
         <f>B10+C10</f>
-        <v>0.21737000000000001</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="J10" s="43">
         <f>I10/H10</f>
-        <v>0.54906665993078885</v>
+        <v>0.58293687197320421</v>
       </c>
       <c r="K10" s="43">
         <f>(D10+E10)/H10</f>
-        <v>0.30917679153300159</v>
+        <v>0.29688733385957805</v>
       </c>
       <c r="L10" s="43"/>
       <c r="M10" s="43"/>
@@ -15194,48 +15507,48 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="str">
-        <f>'OECD 2021-data'!A23</f>
-        <v>Germany</v>
+        <f>'OECD 2021-original'!A18</f>
+        <v>Czech Republic</v>
       </c>
       <c r="B11" s="42">
-        <f>'OECD 2021-data'!G23/100 + 'OECD 2021-data'!L23/100</f>
-        <v>0.10517</v>
+        <f>'OECD 2021-original'!G18/100 + 'OECD 2021-original'!L18/100</f>
+        <v>3.0890000000000001E-2</v>
       </c>
       <c r="C11" s="42">
-        <f>'OECD 2021-data'!M23/100+'OECD 2021-data'!Z23/100</f>
-        <v>0.14879000000000001</v>
+        <f>'OECD 2021-original'!M18/100+'OECD 2021-original'!Z18/100</f>
+        <v>0.16449000000000003</v>
       </c>
       <c r="D11" s="42">
-        <f>'OECD 2021-data'!AS23/100</f>
-        <v>7.2349999999999998E-2</v>
+        <f>'OECD 2021-original'!AS18/100</f>
+        <v>7.5880000000000003E-2</v>
       </c>
       <c r="E11" s="42">
-        <f>'OECD 2021-data'!AP23/100-D11</f>
-        <v>3.2810000000000006E-2</v>
+        <f>'OECD 2021-original'!AP18/100-D11</f>
+        <v>3.2939999999999997E-2</v>
       </c>
       <c r="F11" s="42">
-        <f>'OECD 2021-data'!I23/100</f>
-        <v>2.35E-2</v>
+        <f>'OECD 2021-original'!I18/100</f>
+        <v>3.2219999999999999E-2</v>
       </c>
       <c r="G11" s="42">
-        <f>('OECD 2021-data'!H23+'OECD 2021-data'!AA23)/100</f>
-        <v>1.2430000000000002E-2</v>
+        <f>('OECD 2021-original'!H18+'OECD 2021-original'!AA18)/100</f>
+        <v>1.9500000000000001E-3</v>
       </c>
       <c r="H11" s="42">
         <f>SUM(B11:G11)</f>
-        <v>0.39505000000000001</v>
+        <v>0.33837000000000006</v>
       </c>
       <c r="I11" s="43">
         <f>B11+C11</f>
-        <v>0.25396000000000002</v>
+        <v>0.19538000000000003</v>
       </c>
       <c r="J11" s="43">
         <f>I11/H11</f>
-        <v>0.64285533476775092</v>
+        <v>0.57741525548955286</v>
       </c>
       <c r="K11" s="43">
         <f>(D11+E11)/H11</f>
-        <v>0.26619415263890644</v>
+        <v>0.32160061471170609</v>
       </c>
       <c r="L11" s="43"/>
       <c r="M11" s="43"/>
@@ -15243,48 +15556,48 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="str">
-        <f>'OECD 2021-data'!A33</f>
-        <v>Luxembourg</v>
+        <f>'OECD 2021-original'!A21</f>
+        <v>Finland</v>
       </c>
       <c r="B12" s="42">
-        <f>'OECD 2021-data'!G33/100 + 'OECD 2021-data'!L33/100</f>
-        <v>0.10122</v>
+        <f>'OECD 2021-original'!G21/100 + 'OECD 2021-original'!L21/100</f>
+        <v>0.12837999999999999</v>
       </c>
       <c r="C12" s="42">
-        <f>'OECD 2021-data'!M33/100+'OECD 2021-data'!Z33/100</f>
-        <v>0.10564999999999999</v>
+        <f>'OECD 2021-original'!M21/100+'OECD 2021-original'!Z21/100</f>
+        <v>0.11951000000000001</v>
       </c>
       <c r="D12" s="42">
-        <f>'OECD 2021-data'!AS33/100</f>
-        <v>6.0850000000000001E-2</v>
+        <f>'OECD 2021-original'!AS21/100</f>
+        <v>9.3689999999999996E-2</v>
       </c>
       <c r="E12" s="42">
-        <f>'OECD 2021-data'!AP33/100-D12</f>
-        <v>3.212000000000001E-2</v>
+        <f>'OECD 2021-original'!AP21/100-D12</f>
+        <v>4.6010000000000023E-2</v>
       </c>
       <c r="F12" s="42">
-        <f>'OECD 2021-data'!I33/100</f>
-        <v>4.5279999999999994E-2</v>
+        <f>'OECD 2021-original'!I21/100</f>
+        <v>2.683E-2</v>
       </c>
       <c r="G12" s="42">
-        <f>('OECD 2021-data'!H33+'OECD 2021-data'!AA33)/100</f>
-        <v>4.0199999999999993E-2</v>
+        <f>('OECD 2021-original'!H21+'OECD 2021-original'!AA21)/100</f>
+        <v>1.5069999999999998E-2</v>
       </c>
       <c r="H12" s="42">
         <f>SUM(B12:G12)</f>
-        <v>0.38532</v>
+        <v>0.42948999999999998</v>
       </c>
       <c r="I12" s="43">
         <f>B12+C12</f>
-        <v>0.20687</v>
+        <v>0.24789</v>
       </c>
       <c r="J12" s="43">
         <f>I12/H12</f>
-        <v>0.53687843870030105</v>
+        <v>0.57717292602854553</v>
       </c>
       <c r="K12" s="43">
         <f>(D12+E12)/H12</f>
-        <v>0.24127997508564314</v>
+        <v>0.3252695056927985</v>
       </c>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
@@ -15292,48 +15605,48 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="40" t="str">
-        <f>'OECD 2021-data'!A41</f>
-        <v>Slovenia</v>
+        <f>'OECD 2021-original'!A43</f>
+        <v>Sweden</v>
       </c>
       <c r="B13" s="42">
-        <f>'OECD 2021-data'!G41/100 + 'OECD 2021-data'!L41/100</f>
-        <v>5.4379999999999998E-2</v>
+        <f>'OECD 2021-original'!G43/100 + 'OECD 2021-original'!L43/100</f>
+        <v>0.10348</v>
       </c>
       <c r="C13" s="42">
-        <f>'OECD 2021-data'!M41/100+'OECD 2021-data'!Z41/100</f>
-        <v>0.16449999999999998</v>
+        <f>'OECD 2021-original'!M43/100+'OECD 2021-original'!Z43/100</f>
+        <v>0.14199000000000001</v>
       </c>
       <c r="D13" s="42">
-        <f>'OECD 2021-data'!AS41/100</f>
-        <v>8.2210000000000005E-2</v>
+        <f>'OECD 2021-original'!AS43/100</f>
+        <v>9.2070000000000013E-2</v>
       </c>
       <c r="E13" s="42">
-        <f>'OECD 2021-data'!AP41/100-D13</f>
-        <v>4.7600000000000003E-2</v>
+        <f>'OECD 2021-original'!AP43/100-D13</f>
+        <v>2.8119999999999992E-2</v>
       </c>
       <c r="F13" s="42">
-        <f>'OECD 2021-data'!I41/100</f>
-        <v>1.9359999999999999E-2</v>
+        <f>'OECD 2021-original'!I43/100</f>
+        <v>3.0079999999999999E-2</v>
       </c>
       <c r="G13" s="42">
-        <f>('OECD 2021-data'!H41+'OECD 2021-data'!AA41)/100</f>
-        <v>6.2199999999999998E-3</v>
+        <f>('OECD 2021-original'!H43+'OECD 2021-original'!AA43)/100</f>
+        <v>2.9559999999999999E-2</v>
       </c>
       <c r="H13" s="42">
         <f>SUM(B13:G13)</f>
-        <v>0.37426999999999994</v>
+        <v>0.42530000000000001</v>
       </c>
       <c r="I13" s="43">
         <f>B13+C13</f>
-        <v>0.21887999999999996</v>
+        <v>0.24547000000000002</v>
       </c>
       <c r="J13" s="43">
         <f>I13/H13</f>
-        <v>0.58481844657600124</v>
+        <v>0.5771690571361392</v>
       </c>
       <c r="K13" s="43">
         <f>(D13+E13)/H13</f>
-        <v>0.34683517246907319</v>
+        <v>0.28260051728191865</v>
       </c>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
@@ -15341,48 +15654,48 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="40" t="str">
-        <f>'OECD 2021-data'!A40</f>
-        <v>Slovak Republic</v>
+        <f>'OECD 2021-original'!A13</f>
+        <v>Belgium</v>
       </c>
       <c r="B14" s="42">
-        <f>'OECD 2021-data'!G40/100 + 'OECD 2021-data'!L40/100</f>
-        <v>4.2050000000000004E-2</v>
+        <f>'OECD 2021-original'!G13/100 + 'OECD 2021-original'!L13/100</f>
+        <v>0.11223000000000001</v>
       </c>
       <c r="C14" s="42">
-        <f>'OECD 2021-data'!M40/100+'OECD 2021-data'!Z40/100</f>
-        <v>0.15701999999999999</v>
+        <f>'OECD 2021-original'!M13/100+'OECD 2021-original'!Z13/100</f>
+        <v>0.12875</v>
       </c>
       <c r="D14" s="42">
-        <f>'OECD 2021-data'!AS40/100</f>
-        <v>7.7609999999999998E-2</v>
+        <f>'OECD 2021-original'!AS13/100</f>
+        <v>6.7589999999999997E-2</v>
       </c>
       <c r="E14" s="42">
-        <f>'OECD 2021-data'!AP40/100-D14</f>
-        <v>4.6039999999999998E-2</v>
+        <f>'OECD 2021-original'!AP13/100-D14</f>
+        <v>3.8309999999999997E-2</v>
       </c>
       <c r="F14" s="42">
-        <f>'OECD 2021-data'!I40/100</f>
-        <v>3.0289999999999997E-2</v>
+        <f>'OECD 2021-original'!I13/100</f>
+        <v>3.7659999999999999E-2</v>
       </c>
       <c r="G14" s="42">
-        <f>('OECD 2021-data'!H40+'OECD 2021-data'!AA40)/100</f>
-        <v>4.7999999999999996E-3</v>
+        <f>('OECD 2021-original'!H13+'OECD 2021-original'!AA13)/100</f>
+        <v>3.5610000000000003E-2</v>
       </c>
       <c r="H14" s="42">
         <f>SUM(B14:G14)</f>
-        <v>0.35781000000000002</v>
+        <v>0.42015000000000002</v>
       </c>
       <c r="I14" s="43">
         <f>B14+C14</f>
-        <v>0.19907</v>
+        <v>0.24098000000000003</v>
       </c>
       <c r="J14" s="43">
         <f>I14/H14</f>
-        <v>0.55635672563651095</v>
+        <v>0.57355706295370701</v>
       </c>
       <c r="K14" s="43">
         <f>(D14+E14)/H14</f>
-        <v>0.34557446689583854</v>
+        <v>0.25205283827204567</v>
       </c>
       <c r="L14" s="43"/>
       <c r="M14" s="43"/>
@@ -15390,48 +15703,48 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="40" t="str">
-        <f>'OECD 2021-data'!A26</f>
-        <v>Iceland</v>
+        <f>'OECD 2021-original'!A40</f>
+        <v>Slovak Republic</v>
       </c>
       <c r="B15" s="42">
-        <f>'OECD 2021-data'!G26/100 + 'OECD 2021-data'!L26/100</f>
-        <v>0.15501000000000001</v>
+        <f>'OECD 2021-original'!G40/100 + 'OECD 2021-original'!L40/100</f>
+        <v>4.2050000000000004E-2</v>
       </c>
       <c r="C15" s="42">
-        <f>'OECD 2021-data'!M26/100+'OECD 2021-data'!Z26/100</f>
-        <v>3.2780000000000004E-2</v>
+        <f>'OECD 2021-original'!M40/100+'OECD 2021-original'!Z40/100</f>
+        <v>0.15701999999999999</v>
       </c>
       <c r="D15" s="42">
-        <f>'OECD 2021-data'!AS26/100</f>
-        <v>8.5449999999999998E-2</v>
+        <f>'OECD 2021-original'!AS40/100</f>
+        <v>7.7609999999999998E-2</v>
       </c>
       <c r="E15" s="42">
-        <f>'OECD 2021-data'!AP26/100-D15</f>
-        <v>3.2280000000000003E-2</v>
+        <f>'OECD 2021-original'!AP40/100-D15</f>
+        <v>4.6039999999999998E-2</v>
       </c>
       <c r="F15" s="42">
-        <f>'OECD 2021-data'!I26/100</f>
-        <v>2.0129999999999999E-2</v>
+        <f>'OECD 2021-original'!I40/100</f>
+        <v>3.0289999999999997E-2</v>
       </c>
       <c r="G15" s="42">
-        <f>('OECD 2021-data'!H26+'OECD 2021-data'!AA26)/100</f>
-        <v>2.0840000000000001E-2</v>
+        <f>('OECD 2021-original'!H40+'OECD 2021-original'!AA40)/100</f>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="H15" s="42">
         <f>SUM(B15:G15)</f>
-        <v>0.34649000000000002</v>
+        <v>0.35781000000000002</v>
       </c>
       <c r="I15" s="43">
         <f>B15+C15</f>
-        <v>0.18779000000000001</v>
+        <v>0.19907</v>
       </c>
       <c r="J15" s="43">
         <f>I15/H15</f>
-        <v>0.54197812346676677</v>
+        <v>0.55635672563651095</v>
       </c>
       <c r="K15" s="43">
         <f>(D15+E15)/H15</f>
-        <v>0.33977892579872432</v>
+        <v>0.34557446689583854</v>
       </c>
       <c r="L15" s="43"/>
       <c r="M15" s="43"/>
@@ -15439,48 +15752,48 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="40" t="str">
-        <f>'OECD 2021-data'!A25</f>
-        <v>Hungary</v>
+        <f>'OECD 2021-original'!A20</f>
+        <v>Estonia</v>
       </c>
       <c r="B16" s="42">
-        <f>'OECD 2021-data'!G25/100 + 'OECD 2021-data'!L25/100</f>
-        <v>5.228E-2</v>
+        <f>'OECD 2021-original'!G20/100 + 'OECD 2021-original'!L20/100</f>
+        <v>6.8250000000000005E-2</v>
       </c>
       <c r="C16" s="42">
-        <f>'OECD 2021-data'!M25/100+'OECD 2021-data'!Z25/100</f>
-        <v>0.11108000000000001</v>
+        <f>'OECD 2021-original'!M20/100+'OECD 2021-original'!Z20/100</f>
+        <v>0.11613</v>
       </c>
       <c r="D16" s="42">
-        <f>'OECD 2021-data'!AS25/100</f>
-        <v>9.7680000000000003E-2</v>
+        <f>'OECD 2021-original'!AS20/100</f>
+        <v>9.1499999999999998E-2</v>
       </c>
       <c r="E16" s="42">
-        <f>'OECD 2021-data'!AP25/100-D16</f>
-        <v>5.8549999999999977E-2</v>
+        <f>'OECD 2021-original'!AP20/100-D16</f>
+        <v>4.2190000000000005E-2</v>
       </c>
       <c r="F16" s="42">
-        <f>'OECD 2021-data'!I25/100</f>
-        <v>1.1650000000000001E-2</v>
+        <f>'OECD 2021-original'!I20/100</f>
+        <v>1.5300000000000001E-2</v>
       </c>
       <c r="G16" s="42">
-        <f>('OECD 2021-data'!H25+'OECD 2021-data'!AA25)/100</f>
-        <v>8.6800000000000002E-3</v>
+        <f>('OECD 2021-original'!H20+'OECD 2021-original'!AA20)/100</f>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="H16" s="42">
         <f>SUM(B16:G16)</f>
-        <v>0.33992</v>
+        <v>0.33524999999999999</v>
       </c>
       <c r="I16" s="43">
         <f>B16+C16</f>
-        <v>0.16336000000000001</v>
+        <v>0.18437999999999999</v>
       </c>
       <c r="J16" s="43">
         <f>I16/H16</f>
-        <v>0.48058366674511649</v>
+        <v>0.54997762863534672</v>
       </c>
       <c r="K16" s="43">
         <f>(D16+E16)/H16</f>
-        <v>0.45960814309249232</v>
+        <v>0.39877703206562271</v>
       </c>
       <c r="L16" s="43"/>
       <c r="M16" s="43"/>
@@ -15488,48 +15801,48 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="40" t="str">
-        <f>'OECD 2021-data'!A18</f>
-        <v>Czech Republic</v>
+        <f>'OECD 2021-original'!A32</f>
+        <v>Lithuania</v>
       </c>
       <c r="B17" s="42">
-        <f>'OECD 2021-data'!G18/100 + 'OECD 2021-data'!L18/100</f>
-        <v>3.0890000000000001E-2</v>
+        <f>'OECD 2021-original'!G32/100 + 'OECD 2021-original'!L32/100</f>
+        <v>7.6679999999999998E-2</v>
       </c>
       <c r="C17" s="42">
-        <f>'OECD 2021-data'!M18/100+'OECD 2021-data'!Z18/100</f>
-        <v>0.16449000000000003</v>
+        <f>'OECD 2021-original'!M32/100+'OECD 2021-original'!Z32/100</f>
+        <v>0.10348</v>
       </c>
       <c r="D17" s="42">
-        <f>'OECD 2021-data'!AS18/100</f>
-        <v>7.5880000000000003E-2</v>
+        <f>'OECD 2021-original'!AS32/100</f>
+        <v>8.584E-2</v>
       </c>
       <c r="E17" s="42">
-        <f>'OECD 2021-data'!AP18/100-D17</f>
-        <v>3.2939999999999997E-2</v>
+        <f>'OECD 2021-original'!AP32/100-D17</f>
+        <v>3.7489999999999996E-2</v>
       </c>
       <c r="F17" s="42">
-        <f>'OECD 2021-data'!I18/100</f>
-        <v>3.2219999999999999E-2</v>
+        <f>'OECD 2021-original'!I32/100</f>
+        <v>2.1360000000000001E-2</v>
       </c>
       <c r="G17" s="42">
-        <f>('OECD 2021-data'!H18+'OECD 2021-data'!AA18)/100</f>
-        <v>1.9500000000000001E-3</v>
+        <f>('OECD 2021-original'!H32+'OECD 2021-original'!AA32)/100</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H17" s="42">
         <f>SUM(B17:G17)</f>
-        <v>0.33837000000000006</v>
+        <v>0.32785000000000003</v>
       </c>
       <c r="I17" s="43">
         <f>B17+C17</f>
-        <v>0.19538000000000003</v>
+        <v>0.18015999999999999</v>
       </c>
       <c r="J17" s="43">
         <f>I17/H17</f>
-        <v>0.57741525548955286</v>
+        <v>0.54951959737684908</v>
       </c>
       <c r="K17" s="43">
         <f>(D17+E17)/H17</f>
-        <v>0.32160061471170609</v>
+        <v>0.37617813024248892</v>
       </c>
       <c r="L17" s="43"/>
       <c r="M17" s="43"/>
@@ -15537,48 +15850,48 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="40" t="str">
-        <f>'OECD 2021-data'!A36</f>
-        <v>New Zealand</v>
+        <f>'OECD 2021-original'!A35</f>
+        <v>Netherlands</v>
       </c>
       <c r="B18" s="42">
-        <f>'OECD 2021-data'!G36/100 + 'OECD 2021-data'!L36/100</f>
-        <v>0.14394999999999999</v>
+        <f>'OECD 2021-original'!G35/100 + 'OECD 2021-original'!L35/100</f>
+        <v>8.6080000000000004E-2</v>
       </c>
       <c r="C18" s="42">
-        <f>'OECD 2021-data'!M36/100+'OECD 2021-data'!Z36/100</f>
-        <v>0</v>
+        <f>'OECD 2021-original'!M35/100+'OECD 2021-original'!Z35/100</f>
+        <v>0.13128999999999999</v>
       </c>
       <c r="D18" s="42">
-        <f>'OECD 2021-data'!AS36/100</f>
-        <v>0.10351</v>
+        <f>'OECD 2021-original'!AS35/100</f>
+        <v>7.5759999999999994E-2</v>
       </c>
       <c r="E18" s="42">
-        <f>'OECD 2021-data'!AP36/100-D18</f>
-        <v>2.2409999999999999E-2</v>
+        <f>'OECD 2021-original'!AP35/100-D18</f>
+        <v>4.6640000000000015E-2</v>
       </c>
       <c r="F18" s="42">
-        <f>'OECD 2021-data'!I36/100</f>
-        <v>4.8739999999999999E-2</v>
+        <f>'OECD 2021-original'!I35/100</f>
+        <v>3.9019999999999999E-2</v>
       </c>
       <c r="G18" s="42">
-        <f>('OECD 2021-data'!H36+'OECD 2021-data'!AA36)/100</f>
-        <v>1.9210000000000001E-2</v>
+        <f>('OECD 2021-original'!H35+'OECD 2021-original'!AA35)/100</f>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="H18" s="42">
         <f>SUM(B18:G18)</f>
-        <v>0.33782000000000001</v>
+        <v>0.39589000000000002</v>
       </c>
       <c r="I18" s="43">
         <f>B18+C18</f>
-        <v>0.14394999999999999</v>
+        <v>0.21737000000000001</v>
       </c>
       <c r="J18" s="43">
         <f>I18/H18</f>
-        <v>0.42611449884553904</v>
+        <v>0.54906665993078885</v>
       </c>
       <c r="K18" s="43">
         <f>(D18+E18)/H18</f>
-        <v>0.3727428808241075</v>
+        <v>0.30917679153300159</v>
       </c>
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
@@ -15586,48 +15899,48 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="str">
-        <f>'OECD 2021-data'!A20</f>
-        <v>Estonia</v>
+        <f>'OECD 2021-original'!A14</f>
+        <v>Canada</v>
       </c>
       <c r="B19" s="42">
-        <f>'OECD 2021-data'!G20/100 + 'OECD 2021-data'!L20/100</f>
-        <v>6.8250000000000005E-2</v>
+        <f>'OECD 2021-original'!G14/100 + 'OECD 2021-original'!L14/100</f>
+        <v>0.12533</v>
       </c>
       <c r="C19" s="42">
-        <f>'OECD 2021-data'!M20/100+'OECD 2021-data'!Z20/100</f>
-        <v>0.11613</v>
+        <f>'OECD 2021-original'!M14/100+'OECD 2021-original'!Z14/100</f>
+        <v>5.5119999999999995E-2</v>
       </c>
       <c r="D19" s="42">
-        <f>'OECD 2021-data'!AS20/100</f>
-        <v>9.1499999999999998E-2</v>
+        <f>'OECD 2021-original'!AS14/100</f>
+        <v>4.5279999999999994E-2</v>
       </c>
       <c r="E19" s="42">
-        <f>'OECD 2021-data'!AP20/100-D19</f>
-        <v>4.2190000000000005E-2</v>
+        <f>'OECD 2021-original'!AP14/100-D19</f>
+        <v>2.7790000000000016E-2</v>
       </c>
       <c r="F19" s="42">
-        <f>'OECD 2021-data'!I20/100</f>
-        <v>1.5300000000000001E-2</v>
+        <f>'OECD 2021-original'!I14/100</f>
+        <v>3.9E-2</v>
       </c>
       <c r="G19" s="42">
-        <f>('OECD 2021-data'!H20+'OECD 2021-data'!AA20)/100</f>
-        <v>1.8799999999999999E-3</v>
+        <f>('OECD 2021-original'!H14+'OECD 2021-original'!AA14)/100</f>
+        <v>3.9620000000000002E-2</v>
       </c>
       <c r="H19" s="42">
         <f>SUM(B19:G19)</f>
-        <v>0.33524999999999999</v>
+        <v>0.33213999999999999</v>
       </c>
       <c r="I19" s="43">
         <f>B19+C19</f>
-        <v>0.18437999999999999</v>
+        <v>0.18045</v>
       </c>
       <c r="J19" s="43">
         <f>I19/H19</f>
-        <v>0.54997762863534672</v>
+        <v>0.54329499608598786</v>
       </c>
       <c r="K19" s="43">
         <f>(D19+E19)/H19</f>
-        <v>0.39877703206562271</v>
+        <v>0.21999759137713015</v>
       </c>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
@@ -15635,48 +15948,48 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="str">
-        <f>'OECD 2021-data'!A46</f>
-        <v>United Kingdom</v>
+        <f>'OECD 2021-original'!A26</f>
+        <v>Iceland</v>
       </c>
       <c r="B20" s="42">
-        <f>'OECD 2021-data'!G46/100 + 'OECD 2021-data'!L46/100</f>
-        <v>9.4090000000000007E-2</v>
+        <f>'OECD 2021-original'!G26/100 + 'OECD 2021-original'!L26/100</f>
+        <v>0.15501000000000001</v>
       </c>
       <c r="C20" s="42">
-        <f>'OECD 2021-data'!M46/100+'OECD 2021-data'!Z46/100</f>
-        <v>6.8059999999999996E-2</v>
+        <f>'OECD 2021-original'!M26/100+'OECD 2021-original'!Z26/100</f>
+        <v>3.2780000000000004E-2</v>
       </c>
       <c r="D20" s="42">
-        <f>'OECD 2021-data'!AS46/100</f>
-        <v>6.7809999999999995E-2</v>
+        <f>'OECD 2021-original'!AS26/100</f>
+        <v>8.5449999999999998E-2</v>
       </c>
       <c r="E20" s="42">
-        <f>'OECD 2021-data'!AP46/100-D20</f>
-        <v>3.4940000000000013E-2</v>
+        <f>'OECD 2021-original'!AP26/100-D20</f>
+        <v>3.2280000000000003E-2</v>
       </c>
       <c r="F20" s="42">
-        <f>'OECD 2021-data'!I46/100</f>
-        <v>2.648E-2</v>
+        <f>'OECD 2021-original'!I26/100</f>
+        <v>2.0129999999999999E-2</v>
       </c>
       <c r="G20" s="42">
-        <f>('OECD 2021-data'!H46+'OECD 2021-data'!AA46)/100</f>
-        <v>4.3380000000000002E-2</v>
+        <f>('OECD 2021-original'!H26+'OECD 2021-original'!AA26)/100</f>
+        <v>2.0840000000000001E-2</v>
       </c>
       <c r="H20" s="42">
         <f>SUM(B20:G20)</f>
-        <v>0.33476000000000006</v>
+        <v>0.34649000000000002</v>
       </c>
       <c r="I20" s="43">
         <f>B20+C20</f>
-        <v>0.16215000000000002</v>
+        <v>0.18779000000000001</v>
       </c>
       <c r="J20" s="43">
         <f>I20/H20</f>
-        <v>0.48437686700920057</v>
+        <v>0.54197812346676677</v>
       </c>
       <c r="K20" s="43">
         <f>(D20+E20)/H20</f>
-        <v>0.30693631258214837</v>
+        <v>0.33977892579872432</v>
       </c>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
@@ -15684,48 +15997,48 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="str">
-        <f>'OECD 2021-data'!A14</f>
-        <v>Canada</v>
+        <f>'OECD 2021-original'!A33</f>
+        <v>Luxembourg</v>
       </c>
       <c r="B21" s="42">
-        <f>'OECD 2021-data'!G14/100 + 'OECD 2021-data'!L14/100</f>
-        <v>0.12533</v>
+        <f>'OECD 2021-original'!G33/100 + 'OECD 2021-original'!L33/100</f>
+        <v>0.10122</v>
       </c>
       <c r="C21" s="42">
-        <f>'OECD 2021-data'!M14/100+'OECD 2021-data'!Z14/100</f>
-        <v>5.5119999999999995E-2</v>
+        <f>'OECD 2021-original'!M33/100+'OECD 2021-original'!Z33/100</f>
+        <v>0.10564999999999999</v>
       </c>
       <c r="D21" s="42">
-        <f>'OECD 2021-data'!AS14/100</f>
+        <f>'OECD 2021-original'!AS33/100</f>
+        <v>6.0850000000000001E-2</v>
+      </c>
+      <c r="E21" s="42">
+        <f>'OECD 2021-original'!AP33/100-D21</f>
+        <v>3.212000000000001E-2</v>
+      </c>
+      <c r="F21" s="42">
+        <f>'OECD 2021-original'!I33/100</f>
         <v>4.5279999999999994E-2</v>
       </c>
-      <c r="E21" s="42">
-        <f>'OECD 2021-data'!AP14/100-D21</f>
-        <v>2.7790000000000016E-2</v>
-      </c>
-      <c r="F21" s="42">
-        <f>'OECD 2021-data'!I14/100</f>
-        <v>3.9E-2</v>
-      </c>
       <c r="G21" s="42">
-        <f>('OECD 2021-data'!H14+'OECD 2021-data'!AA14)/100</f>
-        <v>3.9620000000000002E-2</v>
+        <f>('OECD 2021-original'!H33+'OECD 2021-original'!AA33)/100</f>
+        <v>4.0199999999999993E-2</v>
       </c>
       <c r="H21" s="42">
         <f>SUM(B21:G21)</f>
-        <v>0.33213999999999999</v>
+        <v>0.38532</v>
       </c>
       <c r="I21" s="43">
         <f>B21+C21</f>
-        <v>0.18045</v>
+        <v>0.20687</v>
       </c>
       <c r="J21" s="43">
         <f>I21/H21</f>
-        <v>0.54329499608598786</v>
+        <v>0.53687843870030105</v>
       </c>
       <c r="K21" s="43">
         <f>(D21+E21)/H21</f>
-        <v>0.21999759137713015</v>
+        <v>0.24127997508564314</v>
       </c>
       <c r="L21" s="43"/>
       <c r="M21" s="43"/>
@@ -15733,48 +16046,48 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="str">
-        <f>'OECD 2021-data'!A32</f>
-        <v>Lithuania</v>
+        <f>'OECD 2021-original'!A31</f>
+        <v>Latvia</v>
       </c>
       <c r="B22" s="42">
-        <f>'OECD 2021-data'!G32/100 + 'OECD 2021-data'!L32/100</f>
-        <v>7.6679999999999998E-2</v>
+        <f>'OECD 2021-original'!G31/100 + 'OECD 2021-original'!L31/100</f>
+        <v>6.1089999999999998E-2</v>
       </c>
       <c r="C22" s="42">
-        <f>'OECD 2021-data'!M32/100+'OECD 2021-data'!Z32/100</f>
-        <v>0.10348</v>
+        <f>'OECD 2021-original'!M31/100+'OECD 2021-original'!Z31/100</f>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="D22" s="42">
-        <f>'OECD 2021-data'!AS32/100</f>
-        <v>8.584E-2</v>
+        <f>'OECD 2021-original'!AS31/100</f>
+        <v>8.585000000000001E-2</v>
       </c>
       <c r="E22" s="42">
-        <f>'OECD 2021-data'!AP32/100-D22</f>
-        <v>3.7489999999999996E-2</v>
+        <f>'OECD 2021-original'!AP31/100-D22</f>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="F22" s="42">
-        <f>'OECD 2021-data'!I32/100</f>
-        <v>2.1360000000000001E-2</v>
+        <f>'OECD 2021-original'!I31/100</f>
+        <v>8.5500000000000003E-3</v>
       </c>
       <c r="G22" s="42">
-        <f>('OECD 2021-data'!H32+'OECD 2021-data'!AA32)/100</f>
-        <v>3.0000000000000001E-3</v>
+        <f>('OECD 2021-original'!H31+'OECD 2021-original'!AA31)/100</f>
+        <v>8.94E-3</v>
       </c>
       <c r="H22" s="42">
         <f>SUM(B22:G22)</f>
-        <v>0.32785000000000003</v>
+        <v>0.31213000000000002</v>
       </c>
       <c r="I22" s="43">
         <f>B22+C22</f>
-        <v>0.18015999999999999</v>
+        <v>0.16039</v>
       </c>
       <c r="J22" s="43">
         <f>I22/H22</f>
-        <v>0.54951959737684908</v>
+        <v>0.51385640598468585</v>
       </c>
       <c r="K22" s="43">
         <f>(D22+E22)/H22</f>
-        <v>0.37617813024248892</v>
+        <v>0.43010924935123185</v>
       </c>
       <c r="L22" s="43"/>
       <c r="M22" s="43"/>
@@ -15782,48 +16095,47 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="40" t="str">
-        <f>'OECD 2021-data'!A28</f>
-        <v>Israel</v>
+        <f>'OECD 2021-original'!A38</f>
+        <v>Poland</v>
       </c>
       <c r="B23" s="42">
-        <f>'OECD 2021-data'!G28/100 + 'OECD 2021-data'!L28/100</f>
-        <v>7.8220000000000012E-2</v>
+        <v>5.1849999999999993E-2</v>
       </c>
       <c r="C23" s="42">
-        <f>'OECD 2021-data'!M28/100+'OECD 2021-data'!Z28/100</f>
-        <v>5.9889999999999992E-2</v>
+        <f>'OECD 2021-original'!M38/100+'OECD 2021-original'!Z38/100</f>
+        <v>0.13566999999999999</v>
       </c>
       <c r="D23" s="42">
-        <f>'OECD 2021-data'!AS28/100</f>
-        <v>7.5399999999999995E-2</v>
+        <f>'OECD 2021-original'!AS38/100</f>
+        <v>8.5860000000000006E-2</v>
       </c>
       <c r="E23" s="42">
-        <f>'OECD 2021-data'!AP28/100-D23</f>
-        <v>3.4360000000000016E-2</v>
+        <f>'OECD 2021-original'!AP38/100-D23</f>
+        <v>5.302999999999998E-2</v>
       </c>
       <c r="F23" s="42">
-        <f>'OECD 2021-data'!I28/100</f>
-        <v>3.5790000000000002E-2</v>
+        <f>'OECD 2021-original'!I38/100</f>
+        <v>2.6160000000000003E-2</v>
       </c>
       <c r="G23" s="42">
-        <f>('OECD 2021-data'!H28+'OECD 2021-data'!AA28)/100</f>
-        <v>3.8670000000000003E-2</v>
+        <f>('OECD 2021-original'!H38+'OECD 2021-original'!AA38)/100</f>
+        <v>1.282E-2</v>
       </c>
       <c r="H23" s="42">
         <f>SUM(B23:G23)</f>
-        <v>0.32233000000000001</v>
+        <v>0.36538999999999994</v>
       </c>
       <c r="I23" s="43">
         <f>B23+C23</f>
-        <v>0.13811000000000001</v>
+        <v>0.18751999999999996</v>
       </c>
       <c r="J23" s="43">
         <f>I23/H23</f>
-        <v>0.42847392423913383</v>
+        <v>0.51320506855688441</v>
       </c>
       <c r="K23" s="43">
         <f>(D23+E23)/H23</f>
-        <v>0.34052058449415196</v>
+        <v>0.38011439831413013</v>
       </c>
       <c r="L23" s="43"/>
       <c r="M23" s="43"/>
@@ -15831,48 +16143,48 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="str">
-        <f>'OECD 2021-data'!A38</f>
-        <v>Poland</v>
+        <f>'OECD 2021-original'!A17</f>
+        <v>Costa Rica</v>
       </c>
       <c r="B24" s="42">
-        <f>'OECD 2021-data'!G38/100 + 'OECD 2021-data'!L38/100</f>
-        <v>0</v>
+        <f>'OECD 2021-original'!G17/100 + 'OECD 2021-original'!L17/100</f>
+        <v>2.734E-2</v>
       </c>
       <c r="C24" s="42">
-        <f>'OECD 2021-data'!M38/100+'OECD 2021-data'!Z38/100</f>
-        <v>0.13566999999999999</v>
+        <f>'OECD 2021-original'!M17/100+'OECD 2021-original'!Z17/100</f>
+        <v>9.4729999999999995E-2</v>
       </c>
       <c r="D24" s="42">
-        <f>'OECD 2021-data'!AS38/100</f>
-        <v>8.5860000000000006E-2</v>
+        <f>'OECD 2021-original'!AS17/100</f>
+        <v>5.1119999999999999E-2</v>
       </c>
       <c r="E24" s="42">
-        <f>'OECD 2021-data'!AP38/100-D24</f>
-        <v>5.302999999999998E-2</v>
+        <f>'OECD 2021-original'!AP17/100-D24</f>
+        <v>3.6250000000000004E-2</v>
       </c>
       <c r="F24" s="42">
-        <f>'OECD 2021-data'!I38/100</f>
-        <v>2.6160000000000003E-2</v>
+        <f>'OECD 2021-original'!I17/100</f>
+        <v>2.4319999999999998E-2</v>
       </c>
       <c r="G24" s="42">
-        <f>('OECD 2021-data'!H38+'OECD 2021-data'!AA38)/100</f>
-        <v>1.282E-2</v>
+        <f>('OECD 2021-original'!H17+'OECD 2021-original'!AA17)/100</f>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="H24" s="42">
         <f>SUM(B24:G24)</f>
-        <v>0.31353999999999999</v>
+        <v>0.23866000000000001</v>
       </c>
       <c r="I24" s="43">
         <f>B24+C24</f>
-        <v>0.13566999999999999</v>
+        <v>0.12207</v>
       </c>
       <c r="J24" s="43">
         <f>I24/H24</f>
-        <v>0.43270396121706955</v>
+        <v>0.51148076761920724</v>
       </c>
       <c r="K24" s="43">
         <f>(D24+E24)/H24</f>
-        <v>0.44297378324934616</v>
+        <v>0.36608564485041484</v>
       </c>
       <c r="L24" s="43"/>
       <c r="M24" s="43"/>
@@ -15880,48 +16192,46 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="str">
-        <f>'OECD 2021-data'!A31</f>
-        <v>Latvia</v>
+        <f>'OECD 2021-original'!A24</f>
+        <v>Greece</v>
       </c>
       <c r="B25" s="42">
-        <f>'OECD 2021-data'!G31/100 + 'OECD 2021-data'!L31/100</f>
-        <v>6.1089999999999998E-2</v>
+        <v>5.9980000000000006E-2</v>
       </c>
       <c r="C25" s="42">
-        <f>'OECD 2021-data'!M31/100+'OECD 2021-data'!Z31/100</f>
-        <v>9.9299999999999999E-2</v>
+        <f>'OECD 2021-original'!M24/100+'OECD 2021-original'!Z24/100</f>
+        <v>0.12805999999999998</v>
       </c>
       <c r="D25" s="42">
-        <f>'OECD 2021-data'!AS31/100</f>
-        <v>8.585000000000001E-2</v>
+        <v>8.3909999999999998E-2</v>
       </c>
       <c r="E25" s="42">
-        <f>'OECD 2021-data'!AP31/100-D25</f>
-        <v>4.8399999999999999E-2</v>
+        <f>'OECD 2021-original'!AP24/100-D25</f>
+        <v>6.7140000000000019E-2</v>
       </c>
       <c r="F25" s="42">
-        <f>'OECD 2021-data'!I31/100</f>
-        <v>8.5500000000000003E-3</v>
+        <f>'OECD 2021-original'!I24/100</f>
+        <v>0</v>
       </c>
       <c r="G25" s="42">
-        <f>('OECD 2021-data'!H31+'OECD 2021-data'!AA31)/100</f>
-        <v>8.94E-3</v>
+        <f>('OECD 2021-original'!H24+'OECD 2021-original'!AA24)/100</f>
+        <v>2.9929999999999998E-2</v>
       </c>
       <c r="H25" s="42">
         <f>SUM(B25:G25)</f>
-        <v>0.31213000000000002</v>
+        <v>0.36902000000000001</v>
       </c>
       <c r="I25" s="43">
         <f>B25+C25</f>
-        <v>0.16039</v>
+        <v>0.18803999999999998</v>
       </c>
       <c r="J25" s="43">
         <f>I25/H25</f>
-        <v>0.51385640598468585</v>
+        <v>0.50956587718822821</v>
       </c>
       <c r="K25" s="43">
         <f>(D25+E25)/H25</f>
-        <v>0.43010924935123185</v>
+        <v>0.40932740772857845</v>
       </c>
       <c r="L25" s="43"/>
       <c r="M25" s="43"/>
@@ -15929,48 +16239,47 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="str">
-        <f>'OECD 2021-data'!A24</f>
-        <v>Greece</v>
+        <f>'OECD 2021-original'!A39</f>
+        <v>Portugal</v>
       </c>
       <c r="B26" s="42">
-        <f>'OECD 2021-data'!G24/100 + 'OECD 2021-data'!L24/100</f>
-        <v>0</v>
+        <v>6.9150000000000003E-2</v>
       </c>
       <c r="C26" s="42">
-        <f>'OECD 2021-data'!M24/100+'OECD 2021-data'!Z24/100</f>
-        <v>0.12805999999999998</v>
+        <f>'OECD 2021-original'!M39/100+'OECD 2021-original'!Z39/100</f>
+        <v>0.10586999999999999</v>
       </c>
       <c r="D26" s="42">
-        <f>'OECD 2021-data'!AS24/100</f>
-        <v>0</v>
+        <f>'OECD 2021-original'!AS39/100</f>
+        <v>9.0200000000000002E-2</v>
       </c>
       <c r="E26" s="42">
-        <f>'OECD 2021-data'!AP24/100-D26</f>
-        <v>0.15105000000000002</v>
+        <f>'OECD 2021-original'!AP39/100-D26</f>
+        <v>4.8109999999999986E-2</v>
       </c>
       <c r="F26" s="42">
-        <f>'OECD 2021-data'!I24/100</f>
-        <v>0</v>
+        <f>'OECD 2021-original'!I39/100</f>
+        <v>2.436E-2</v>
       </c>
       <c r="G26" s="42">
-        <f>('OECD 2021-data'!H24+'OECD 2021-data'!AA24)/100</f>
-        <v>2.9929999999999998E-2</v>
+        <f>('OECD 2021-original'!H39+'OECD 2021-original'!AA39)/100</f>
+        <v>1.5859999999999999E-2</v>
       </c>
       <c r="H26" s="42">
         <f>SUM(B26:G26)</f>
-        <v>0.30903999999999998</v>
+        <v>0.35354999999999998</v>
       </c>
       <c r="I26" s="43">
         <f>B26+C26</f>
-        <v>0.12805999999999998</v>
+        <v>0.17502000000000001</v>
       </c>
       <c r="J26" s="43">
         <f>I26/H26</f>
-        <v>0.4143800155319699</v>
+        <v>0.49503606279168438</v>
       </c>
       <c r="K26" s="43">
         <f>(D26+E26)/H26</f>
-        <v>0.48877168004141869</v>
+        <v>0.39120350728326969</v>
       </c>
       <c r="L26" s="43"/>
       <c r="M26" s="43"/>
@@ -15978,48 +16287,48 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="str">
-        <f>'OECD 2021-data'!A42</f>
-        <v>Spain</v>
+        <f>'OECD 2021-original'!A46</f>
+        <v>United Kingdom</v>
       </c>
       <c r="B27" s="42">
-        <f>'OECD 2021-data'!G42/100 + 'OECD 2021-data'!L42/100</f>
-        <v>0</v>
+        <f>'OECD 2021-original'!G46/100 + 'OECD 2021-original'!L46/100</f>
+        <v>9.4090000000000007E-2</v>
       </c>
       <c r="C27" s="42">
-        <f>'OECD 2021-data'!M42/100+'OECD 2021-data'!Z42/100</f>
-        <v>0.13655</v>
+        <f>'OECD 2021-original'!M46/100+'OECD 2021-original'!Z46/100</f>
+        <v>6.8059999999999996E-2</v>
       </c>
       <c r="D27" s="42">
-        <f>'OECD 2021-data'!AS42/100</f>
-        <v>6.9349999999999995E-2</v>
+        <f>'OECD 2021-original'!AS46/100</f>
+        <v>6.7809999999999995E-2</v>
       </c>
       <c r="E27" s="42">
-        <f>'OECD 2021-data'!AP42/100-D27</f>
-        <v>3.5640000000000005E-2</v>
+        <f>'OECD 2021-original'!AP46/100-D27</f>
+        <v>3.4940000000000013E-2</v>
       </c>
       <c r="F27" s="42">
-        <f>'OECD 2021-data'!I42/100</f>
-        <v>2.6960000000000001E-2</v>
+        <f>'OECD 2021-original'!I46/100</f>
+        <v>2.648E-2</v>
       </c>
       <c r="G27" s="42">
-        <f>('OECD 2021-data'!H42+'OECD 2021-data'!AA42)/100</f>
-        <v>2.7320000000000001E-2</v>
+        <f>('OECD 2021-original'!H46+'OECD 2021-original'!AA46)/100</f>
+        <v>4.3380000000000002E-2</v>
       </c>
       <c r="H27" s="42">
         <f>SUM(B27:G27)</f>
-        <v>0.29582000000000003</v>
+        <v>0.33476000000000006</v>
       </c>
       <c r="I27" s="43">
         <f>B27+C27</f>
-        <v>0.13655</v>
+        <v>0.16215000000000002</v>
       </c>
       <c r="J27" s="43">
         <f>I27/H27</f>
-        <v>0.46159826921776753</v>
+        <v>0.48437686700920057</v>
       </c>
       <c r="K27" s="43">
         <f>(D27+E27)/H27</f>
-        <v>0.35491177067135415</v>
+        <v>0.30693631258214837</v>
       </c>
       <c r="L27" s="43"/>
       <c r="M27" s="43"/>
@@ -16027,48 +16336,48 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="str">
-        <f>'OECD 2021-data'!A30</f>
-        <v>Korea</v>
+        <f>'OECD 2021-original'!A37</f>
+        <v>Norway</v>
       </c>
       <c r="B28" s="42">
-        <f>'OECD 2021-data'!G30/100 + 'OECD 2021-data'!L30/100</f>
-        <v>4.3200000000000002E-2</v>
+        <f>'OECD 2021-original'!G37/100 + 'OECD 2021-original'!L37/100</f>
+        <v>0.10727</v>
       </c>
       <c r="C28" s="42">
-        <f>'OECD 2021-data'!M30/100+'OECD 2021-data'!Z30/100</f>
-        <v>7.9149999999999998E-2</v>
+        <f>'OECD 2021-original'!M37/100+'OECD 2021-original'!Z37/100</f>
+        <v>9.7249999999999989E-2</v>
       </c>
       <c r="D28" s="42">
-        <f>'OECD 2021-data'!AS30/100</f>
-        <v>4.2969999999999994E-2</v>
+        <f>'OECD 2021-original'!AS37/100</f>
+        <v>8.1610000000000002E-2</v>
       </c>
       <c r="E28" s="42">
-        <f>'OECD 2021-data'!AP30/100-D28</f>
-        <v>2.6110000000000008E-2</v>
+        <f>'OECD 2021-original'!AP37/100-D28</f>
+        <v>2.6929999999999996E-2</v>
       </c>
       <c r="F28" s="42">
-        <f>'OECD 2021-data'!I30/100</f>
-        <v>3.8309999999999997E-2</v>
+        <f>'OECD 2021-original'!I37/100</f>
+        <v>9.7180000000000002E-2</v>
       </c>
       <c r="G28" s="42">
-        <f>('OECD 2021-data'!H30+'OECD 2021-data'!AA30)/100</f>
-        <v>6.2740000000000004E-2</v>
+        <f>('OECD 2021-original'!H37+'OECD 2021-original'!AA37)/100</f>
+        <v>1.217E-2</v>
       </c>
       <c r="H28" s="42">
         <f>SUM(B28:G28)</f>
-        <v>0.29248000000000002</v>
+        <v>0.42241000000000001</v>
       </c>
       <c r="I28" s="43">
         <f>B28+C28</f>
-        <v>0.12235</v>
+        <v>0.20451999999999998</v>
       </c>
       <c r="J28" s="43">
         <f>I28/H28</f>
-        <v>0.41831920131291028</v>
+        <v>0.48417414360455474</v>
       </c>
       <c r="K28" s="43">
         <f>(D28+E28)/H28</f>
-        <v>0.23618708971553609</v>
+        <v>0.25695414407802847</v>
       </c>
       <c r="L28" s="43"/>
       <c r="M28" s="43"/>
@@ -16076,48 +16385,48 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="str">
-        <f>'OECD 2021-data'!A39</f>
-        <v>Portugal</v>
+        <f>'OECD 2021-original'!A25</f>
+        <v>Hungary</v>
       </c>
       <c r="B29" s="42">
-        <f>'OECD 2021-data'!G39/100 + 'OECD 2021-data'!L39/100</f>
-        <v>0</v>
+        <f>'OECD 2021-original'!G25/100 + 'OECD 2021-original'!L25/100</f>
+        <v>5.228E-2</v>
       </c>
       <c r="C29" s="42">
-        <f>'OECD 2021-data'!M39/100+'OECD 2021-data'!Z39/100</f>
-        <v>0.10586999999999999</v>
+        <f>'OECD 2021-original'!M25/100+'OECD 2021-original'!Z25/100</f>
+        <v>0.11108000000000001</v>
       </c>
       <c r="D29" s="42">
-        <f>'OECD 2021-data'!AS39/100</f>
-        <v>9.0200000000000002E-2</v>
+        <f>'OECD 2021-original'!AS25/100</f>
+        <v>9.7680000000000003E-2</v>
       </c>
       <c r="E29" s="42">
-        <f>'OECD 2021-data'!AP39/100-D29</f>
-        <v>4.8109999999999986E-2</v>
+        <f>'OECD 2021-original'!AP25/100-D29</f>
+        <v>5.8549999999999977E-2</v>
       </c>
       <c r="F29" s="42">
-        <f>'OECD 2021-data'!I39/100</f>
-        <v>2.436E-2</v>
+        <f>'OECD 2021-original'!I25/100</f>
+        <v>1.1650000000000001E-2</v>
       </c>
       <c r="G29" s="42">
-        <f>('OECD 2021-data'!H39+'OECD 2021-data'!AA39)/100</f>
-        <v>1.5859999999999999E-2</v>
+        <f>('OECD 2021-original'!H25+'OECD 2021-original'!AA25)/100</f>
+        <v>8.6800000000000002E-3</v>
       </c>
       <c r="H29" s="42">
         <f>SUM(B29:G29)</f>
-        <v>0.28439999999999999</v>
+        <v>0.33992</v>
       </c>
       <c r="I29" s="43">
         <f>B29+C29</f>
-        <v>0.10586999999999999</v>
+        <v>0.16336000000000001</v>
       </c>
       <c r="J29" s="43">
         <f>I29/H29</f>
-        <v>0.37225738396624469</v>
+        <v>0.48058366674511649</v>
       </c>
       <c r="K29" s="43">
         <f>(D29+E29)/H29</f>
-        <v>0.48632208157524609</v>
+        <v>0.45960814309249232</v>
       </c>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
@@ -16125,48 +16434,48 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="40" t="str">
-        <f>'OECD 2021-data'!A44</f>
-        <v>Switzerland</v>
+        <f>'OECD 2021-original'!A27</f>
+        <v>Ireland</v>
       </c>
       <c r="B30" s="42">
-        <f>'OECD 2021-data'!G44/100 + 'OECD 2021-data'!L44/100</f>
-        <v>0.10299999999999999</v>
+        <f>'OECD 2021-original'!G27/100 + 'OECD 2021-original'!L27/100</f>
+        <v>6.5140000000000003E-2</v>
       </c>
       <c r="C30" s="42">
-        <f>'OECD 2021-data'!M44/100+'OECD 2021-data'!Z44/100</f>
-        <v>6.7990000000000009E-2</v>
+        <f>'OECD 2021-original'!M27/100+'OECD 2021-original'!Z27/100</f>
+        <v>3.3819999999999996E-2</v>
       </c>
       <c r="D30" s="42">
-        <f>'OECD 2021-data'!AS44/100</f>
-        <v>3.159E-2</v>
+        <f>'OECD 2021-original'!AS27/100</f>
+        <v>3.8949999999999999E-2</v>
       </c>
       <c r="E30" s="42">
-        <f>'OECD 2021-data'!AP44/100-D30</f>
-        <v>2.3230000000000001E-2</v>
+        <f>'OECD 2021-original'!AP27/100-D30</f>
+        <v>2.1530000000000001E-2</v>
       </c>
       <c r="F30" s="42">
-        <f>'OECD 2021-data'!I44/100</f>
-        <v>3.0040000000000001E-2</v>
+        <f>'OECD 2021-original'!I27/100</f>
+        <v>3.5950000000000003E-2</v>
       </c>
       <c r="G30" s="42">
-        <f>('OECD 2021-data'!H44+'OECD 2021-data'!AA44)/100</f>
-        <v>2.2339999999999999E-2</v>
+        <f>('OECD 2021-original'!H27+'OECD 2021-original'!AA27)/100</f>
+        <v>1.5190000000000002E-2</v>
       </c>
       <c r="H30" s="42">
         <f>SUM(B30:G30)</f>
-        <v>0.27819000000000005</v>
+        <v>0.21057999999999999</v>
       </c>
       <c r="I30" s="43">
         <f>B30+C30</f>
-        <v>0.17099</v>
+        <v>9.8959999999999992E-2</v>
       </c>
       <c r="J30" s="43">
         <f>I30/H30</f>
-        <v>0.61465185664473909</v>
+        <v>0.46994016525785925</v>
       </c>
       <c r="K30" s="43">
         <f>(D30+E30)/H30</f>
-        <v>0.19705956360760629</v>
+        <v>0.28720676227561975</v>
       </c>
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
@@ -16174,48 +16483,48 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="40" t="str">
-        <f>'OECD 2021-data'!A47</f>
-        <v>United States</v>
+        <f>'OECD 2021-original'!A28</f>
+        <v>Israel</v>
       </c>
       <c r="B31" s="42">
-        <f>'OECD 2021-data'!G47/100 + 'OECD 2021-data'!L47/100</f>
-        <v>0.10281999999999999</v>
+        <f>'OECD 2021-original'!G28/100 + 'OECD 2021-original'!L28/100</f>
+        <v>7.8220000000000012E-2</v>
       </c>
       <c r="C31" s="42">
-        <f>'OECD 2021-data'!M47/100+'OECD 2021-data'!Z47/100</f>
-        <v>6.3539999999999999E-2</v>
+        <f>'OECD 2021-original'!M28/100+'OECD 2021-original'!Z28/100</f>
+        <v>5.9889999999999992E-2</v>
       </c>
       <c r="D31" s="42">
-        <f>'OECD 2021-data'!AS47/100</f>
-        <v>0</v>
+        <f>'OECD 2021-original'!AS28/100</f>
+        <v>7.5399999999999995E-2</v>
       </c>
       <c r="E31" s="42">
-        <f>'OECD 2021-data'!AP47/100-D31</f>
-        <v>4.4059999999999995E-2</v>
+        <f>'OECD 2021-original'!AP28/100-D31</f>
+        <v>3.4360000000000016E-2</v>
       </c>
       <c r="F31" s="42">
-        <f>'OECD 2021-data'!I47/100</f>
-        <v>1.6049999999999998E-2</v>
+        <f>'OECD 2021-original'!I28/100</f>
+        <v>3.5790000000000002E-2</v>
       </c>
       <c r="G31" s="42">
-        <f>('OECD 2021-data'!H47+'OECD 2021-data'!AA47)/100</f>
-        <v>3.9329999999999997E-2</v>
+        <f>('OECD 2021-original'!H28+'OECD 2021-original'!AA28)/100</f>
+        <v>3.8670000000000003E-2</v>
       </c>
       <c r="H31" s="42">
         <f>SUM(B31:G31)</f>
-        <v>0.26579999999999998</v>
+        <v>0.32233000000000001</v>
       </c>
       <c r="I31" s="43">
         <f>B31+C31</f>
-        <v>0.16636000000000001</v>
+        <v>0.13811000000000001</v>
       </c>
       <c r="J31" s="43">
         <f>I31/H31</f>
-        <v>0.62588412340105348</v>
+        <v>0.42847392423913383</v>
       </c>
       <c r="K31" s="43">
         <f>(D31+E31)/H31</f>
-        <v>0.16576373212942061</v>
+        <v>0.34052058449415196</v>
       </c>
       <c r="L31" s="43"/>
       <c r="M31" s="43"/>
@@ -16223,48 +16532,48 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="40" t="str">
-        <f>'OECD 2021-data'!A17</f>
-        <v>Costa Rica</v>
+        <f>'OECD 2021-original'!A36</f>
+        <v>New Zealand</v>
       </c>
       <c r="B32" s="42">
-        <f>'OECD 2021-data'!G17/100 + 'OECD 2021-data'!L17/100</f>
-        <v>2.734E-2</v>
+        <f>'OECD 2021-original'!G36/100 + 'OECD 2021-original'!L36/100</f>
+        <v>0.14394999999999999</v>
       </c>
       <c r="C32" s="42">
-        <f>'OECD 2021-data'!M17/100+'OECD 2021-data'!Z17/100</f>
-        <v>9.4729999999999995E-2</v>
+        <f>'OECD 2021-original'!M36/100+'OECD 2021-original'!Z36/100</f>
+        <v>0</v>
       </c>
       <c r="D32" s="42">
-        <f>'OECD 2021-data'!AS17/100</f>
-        <v>5.1119999999999999E-2</v>
+        <f>'OECD 2021-original'!AS36/100</f>
+        <v>0.10351</v>
       </c>
       <c r="E32" s="42">
-        <f>'OECD 2021-data'!AP17/100-D32</f>
-        <v>3.6250000000000004E-2</v>
+        <f>'OECD 2021-original'!AP36/100-D32</f>
+        <v>2.2409999999999999E-2</v>
       </c>
       <c r="F32" s="42">
-        <f>'OECD 2021-data'!I17/100</f>
-        <v>2.4319999999999998E-2</v>
+        <f>'OECD 2021-original'!I36/100</f>
+        <v>4.8739999999999999E-2</v>
       </c>
       <c r="G32" s="42">
-        <f>('OECD 2021-data'!H17+'OECD 2021-data'!AA17)/100</f>
-        <v>4.8999999999999998E-3</v>
+        <f>('OECD 2021-original'!H36+'OECD 2021-original'!AA36)/100</f>
+        <v>1.9210000000000001E-2</v>
       </c>
       <c r="H32" s="42">
         <f>SUM(B32:G32)</f>
-        <v>0.23866000000000001</v>
+        <v>0.33782000000000001</v>
       </c>
       <c r="I32" s="43">
         <f>B32+C32</f>
-        <v>0.12207</v>
+        <v>0.14394999999999999</v>
       </c>
       <c r="J32" s="43">
         <f>I32/H32</f>
-        <v>0.51148076761920724</v>
+        <v>0.42611449884553904</v>
       </c>
       <c r="K32" s="43">
         <f>(D32+E32)/H32</f>
-        <v>0.36608564485041484</v>
+        <v>0.3727428808241075</v>
       </c>
       <c r="L32" s="43"/>
       <c r="M32" s="43"/>
@@ -16272,31 +16581,31 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="40" t="str">
-        <f>'OECD 2021-data'!A45</f>
+        <f>'OECD 2021-original'!A45</f>
         <v>Turkey</v>
       </c>
       <c r="B33" s="42">
-        <f>'OECD 2021-data'!G45/100 + 'OECD 2021-data'!L45/100</f>
+        <f>'OECD 2021-original'!G45/100 + 'OECD 2021-original'!L45/100</f>
         <v>3.0299999999999997E-2</v>
       </c>
       <c r="C33" s="42">
-        <f>'OECD 2021-data'!M45/100+'OECD 2021-data'!Z45/100</f>
+        <f>'OECD 2021-original'!M45/100+'OECD 2021-original'!Z45/100</f>
         <v>6.5269999999999995E-2</v>
       </c>
       <c r="D33" s="42">
-        <f>'OECD 2021-data'!AS45/100</f>
+        <f>'OECD 2021-original'!AS45/100</f>
         <v>5.3159999999999999E-2</v>
       </c>
       <c r="E33" s="42">
-        <f>'OECD 2021-data'!AP45/100-D33</f>
+        <f>'OECD 2021-original'!AP45/100-D33</f>
         <v>4.2899999999999994E-2</v>
       </c>
       <c r="F33" s="42">
-        <f>'OECD 2021-data'!I45/100</f>
+        <f>'OECD 2021-original'!I45/100</f>
         <v>2.4550000000000002E-2</v>
       </c>
       <c r="G33" s="42">
-        <f>('OECD 2021-data'!H45+'OECD 2021-data'!AA45)/100</f>
+        <f>('OECD 2021-original'!H45+'OECD 2021-original'!AA45)/100</f>
         <v>9.6799999999999994E-3</v>
       </c>
       <c r="H33" s="42">
@@ -16321,48 +16630,48 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="40" t="str">
-        <f>'OECD 2021-data'!A27</f>
-        <v>Ireland</v>
+        <f>'OECD 2021-original'!A30</f>
+        <v>Korea</v>
       </c>
       <c r="B34" s="42">
-        <f>'OECD 2021-data'!G27/100 + 'OECD 2021-data'!L27/100</f>
-        <v>6.5140000000000003E-2</v>
+        <f>'OECD 2021-original'!G30/100 + 'OECD 2021-original'!L30/100</f>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="C34" s="42">
-        <f>'OECD 2021-data'!M27/100+'OECD 2021-data'!Z27/100</f>
-        <v>3.3819999999999996E-2</v>
+        <f>'OECD 2021-original'!M30/100+'OECD 2021-original'!Z30/100</f>
+        <v>7.9149999999999998E-2</v>
       </c>
       <c r="D34" s="42">
-        <f>'OECD 2021-data'!AS27/100</f>
-        <v>3.8949999999999999E-2</v>
+        <f>'OECD 2021-original'!AS30/100</f>
+        <v>4.2969999999999994E-2</v>
       </c>
       <c r="E34" s="42">
-        <f>'OECD 2021-data'!AP27/100-D34</f>
-        <v>2.1530000000000001E-2</v>
+        <f>'OECD 2021-original'!AP30/100-D34</f>
+        <v>2.6110000000000008E-2</v>
       </c>
       <c r="F34" s="42">
-        <f>'OECD 2021-data'!I27/100</f>
-        <v>3.5950000000000003E-2</v>
+        <f>'OECD 2021-original'!I30/100</f>
+        <v>3.8309999999999997E-2</v>
       </c>
       <c r="G34" s="42">
-        <f>('OECD 2021-data'!H27+'OECD 2021-data'!AA27)/100</f>
-        <v>1.5190000000000002E-2</v>
+        <f>('OECD 2021-original'!H30+'OECD 2021-original'!AA30)/100</f>
+        <v>6.2740000000000004E-2</v>
       </c>
       <c r="H34" s="42">
         <f>SUM(B34:G34)</f>
-        <v>0.21057999999999999</v>
+        <v>0.29248000000000002</v>
       </c>
       <c r="I34" s="43">
         <f>B34+C34</f>
-        <v>9.8959999999999992E-2</v>
+        <v>0.12235</v>
       </c>
       <c r="J34" s="43">
         <f>I34/H34</f>
-        <v>0.46994016525785925</v>
+        <v>0.41831920131291028</v>
       </c>
       <c r="K34" s="43">
         <f>(D34+E34)/H34</f>
-        <v>0.28720676227561975</v>
+        <v>0.23618708971553609</v>
       </c>
       <c r="L34" s="43"/>
       <c r="M34" s="43"/>
@@ -16370,48 +16679,47 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="40" t="str">
-        <f>'OECD 2021-data'!A15</f>
-        <v>Chile</v>
+        <f>'OECD 2021-original'!A34</f>
+        <v>Mexico</v>
       </c>
       <c r="B35" s="42">
-        <f>'OECD 2021-data'!G15/100 + 'OECD 2021-data'!L15/100</f>
-        <v>2.298E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C35" s="42">
-        <f>'OECD 2021-data'!M15/100+'OECD 2021-data'!Z15/100</f>
-        <v>1.1699999999999999E-2</v>
+        <f>'OECD 2021-original'!M34/100+'OECD 2021-original'!Z34/100</f>
+        <v>2.6019999999999998E-2</v>
       </c>
       <c r="D35" s="42">
-        <f>'OECD 2021-data'!AS15/100</f>
-        <v>9.4689999999999996E-2</v>
+        <f>'OECD 2021-original'!AS34/100</f>
+        <v>4.2869999999999998E-2</v>
       </c>
       <c r="E35" s="42">
-        <f>'OECD 2021-data'!AP15/100-D35</f>
-        <v>2.3109999999999992E-2</v>
+        <f>'OECD 2021-original'!AP34/100-D35</f>
+        <v>1.9439999999999999E-2</v>
       </c>
       <c r="F35" s="42">
-        <f>'OECD 2021-data'!I15/100</f>
-        <v>3.8010000000000002E-2</v>
+        <f>'OECD 2021-original'!I34/100</f>
+        <v>3.4290000000000001E-2</v>
       </c>
       <c r="G35" s="42">
-        <f>('OECD 2021-data'!H15+'OECD 2021-data'!AA15)/100</f>
-        <v>1.0629999999999999E-2</v>
+        <f>('OECD 2021-original'!H34+'OECD 2021-original'!AA34)/100</f>
+        <v>3.0100000000000001E-3</v>
       </c>
       <c r="H35" s="42">
         <f>SUM(B35:G35)</f>
-        <v>0.20111999999999999</v>
+        <v>0.16563</v>
       </c>
       <c r="I35" s="43">
         <f>B35+C35</f>
-        <v>3.4680000000000002E-2</v>
+        <v>6.6019999999999995E-2</v>
       </c>
       <c r="J35" s="43">
         <f>I35/H35</f>
-        <v>0.17243436754176614</v>
+        <v>0.39859928756867713</v>
       </c>
       <c r="K35" s="43">
         <f>(D35+E35)/H35</f>
-        <v>0.58571996817820204</v>
+        <v>0.37619996377467846</v>
       </c>
       <c r="L35" s="43"/>
       <c r="M35" s="43"/>
@@ -16419,31 +16727,31 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="40" t="str">
-        <f>'OECD 2021-data'!A16</f>
+        <f>'OECD 2021-original'!A16</f>
         <v>Colombia</v>
       </c>
       <c r="B36" s="42">
-        <f>'OECD 2021-data'!G16/100 + 'OECD 2021-data'!L16/100</f>
+        <f>'OECD 2021-original'!G16/100 + 'OECD 2021-original'!L16/100</f>
         <v>1.617E-2</v>
       </c>
       <c r="C36" s="42">
-        <f>'OECD 2021-data'!M16/100+'OECD 2021-data'!Z16/100</f>
+        <f>'OECD 2021-original'!M16/100+'OECD 2021-original'!Z16/100</f>
         <v>2.2749999999999999E-2</v>
       </c>
       <c r="D36" s="42">
-        <f>'OECD 2021-data'!AS16/100</f>
+        <f>'OECD 2021-original'!AS16/100</f>
         <v>5.9389999999999998E-2</v>
       </c>
       <c r="E36" s="42">
-        <f>'OECD 2021-data'!AP16/100-D36</f>
+        <f>'OECD 2021-original'!AP16/100-D36</f>
         <v>2.4970000000000006E-2</v>
       </c>
       <c r="F36" s="42">
-        <f>'OECD 2021-data'!I16/100</f>
+        <f>'OECD 2021-original'!I16/100</f>
         <v>4.6050000000000008E-2</v>
       </c>
       <c r="G36" s="42">
-        <f>('OECD 2021-data'!H16+'OECD 2021-data'!AA16)/100</f>
+        <f>('OECD 2021-original'!H16+'OECD 2021-original'!AA16)/100</f>
         <v>1.704E-2</v>
       </c>
       <c r="H36" s="42">
@@ -16468,48 +16776,48 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="40" t="str">
-        <f>'OECD 2021-data'!A34</f>
-        <v>Mexico</v>
+        <f>'OECD 2021-original'!A15</f>
+        <v>Chile</v>
       </c>
       <c r="B37" s="42">
-        <f>'OECD 2021-data'!G34/100 + 'OECD 2021-data'!L34/100</f>
-        <v>2.5000000000000001E-3</v>
+        <f>'OECD 2021-original'!G15/100 + 'OECD 2021-original'!L15/100</f>
+        <v>2.298E-2</v>
       </c>
       <c r="C37" s="42">
-        <f>'OECD 2021-data'!M34/100+'OECD 2021-data'!Z34/100</f>
-        <v>2.6019999999999998E-2</v>
+        <f>'OECD 2021-original'!M15/100+'OECD 2021-original'!Z15/100</f>
+        <v>1.1699999999999999E-2</v>
       </c>
       <c r="D37" s="42">
-        <f>'OECD 2021-data'!AS34/100</f>
-        <v>4.2869999999999998E-2</v>
+        <f>'OECD 2021-original'!AS15/100</f>
+        <v>9.4689999999999996E-2</v>
       </c>
       <c r="E37" s="42">
-        <f>'OECD 2021-data'!AP34/100-D37</f>
-        <v>1.9439999999999999E-2</v>
+        <f>'OECD 2021-original'!AP15/100-D37</f>
+        <v>2.3109999999999992E-2</v>
       </c>
       <c r="F37" s="42">
-        <f>'OECD 2021-data'!I34/100</f>
-        <v>3.4290000000000001E-2</v>
+        <f>'OECD 2021-original'!I15/100</f>
+        <v>3.8010000000000002E-2</v>
       </c>
       <c r="G37" s="42">
-        <f>('OECD 2021-data'!H34+'OECD 2021-data'!AA34)/100</f>
-        <v>3.0100000000000001E-3</v>
+        <f>('OECD 2021-original'!H15+'OECD 2021-original'!AA15)/100</f>
+        <v>1.0629999999999999E-2</v>
       </c>
       <c r="H37" s="42">
         <f>SUM(B37:G37)</f>
-        <v>0.12813000000000002</v>
+        <v>0.20111999999999999</v>
       </c>
       <c r="I37" s="43">
         <f>B37+C37</f>
-        <v>2.8519999999999997E-2</v>
+        <v>3.4680000000000002E-2</v>
       </c>
       <c r="J37" s="43">
         <f>I37/H37</f>
-        <v>0.2225864356512916</v>
+        <v>0.17243436754176614</v>
       </c>
       <c r="K37" s="43">
         <f>(D37+E37)/H37</f>
-        <v>0.4863029735424958</v>
+        <v>0.58571996817820204</v>
       </c>
       <c r="L37" s="43"/>
       <c r="M37" s="43"/>
@@ -16518,7 +16826,7 @@
   </sheetData>
   <autoFilter ref="A1:K37" xr:uid="{10EFF2DF-8DB3-5C41-A647-D798662BB97B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K37">
-      <sortCondition descending="1" ref="H1:H37"/>
+      <sortCondition descending="1" ref="J1:J37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
